--- a/M1ercado.xlsx
+++ b/M1ercado.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\2 Semestre ENG\Ciência dos Dados\Projeto 1\cdadosproj1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A9AB20-D93A-49E5-88C9-CB050E36476E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Treinamento" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Teste" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
+    <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,262 +28,262 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="535">
   <si>
-    <t xml:space="preserve">Treinamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu não duvido que o coronavirus é uma arma biológica criada por uma certa superpotência mundial e liberada no meio de uma das maiores cidades de um país em constante evolução econômica, justamente para desestabilizar essa ascensão que o país vem tendo no mercado mundial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quero passar aqui, para convidar novamente a minha rede para o luxuryforweb 2020, onde vou ministrar uma palestra sobre o mercado de luxo na américa latina. 
+    <t>Treinamento</t>
+  </si>
+  <si>
+    <t>eu não duvido que o coronavirus é uma arma biológica criada por uma certa superpotência mundial e liberada no meio de uma das maiores cidades de um país em constante evolução econômica, justamente para desestabilizar essa ascensão que o país vem tendo no mercado mundial.</t>
+  </si>
+  <si>
+    <t>quero passar aqui, para convidar novamente a minha rede para o luxuryforweb 2020, onde vou ministrar uma palestra sobre o mercado de luxo na américa latina. 
 para saber mais, veja o link: https://t.co/fjcvbezyax
 #agências #mkt #comunicação #negócios #pub…https://t.co/iwajm7xmfu</t>
   </si>
   <si>
-    <t xml:space="preserve">@cleitonlima078 enquanto isso tem um mercado aqui em frente do trabalho que se eue quiser passar 50 centavos eles passam e não cobram nada à mais por isso, fico puto com lugares que cobram à mais só por ser no cartão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @senadorhumberto: despreparado e incompetente, bolsonaro está afundando o país. hoje, a petrobras liderou as perdas do ibovespa e perdeu…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @mauricioabdal11: acho interessante analistas econômicos neoliberais e até anarcocapitalistas falando sobre a urgência dos governos da c…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@augustosnunes enquanto isso o mercado especulativo de guedes está, estuprando a economia brasileira!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fui no mercado reclamando voltei reclamando mas 🤣🤣🤣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @renovamidia: o presidente-executivo da #heineken no brasil declarou:
+    <t>@cleitonlima078 enquanto isso tem um mercado aqui em frente do trabalho que se eue quiser passar 50 centavos eles passam e não cobram nada à mais por isso, fico puto com lugares que cobram à mais só por ser no cartão</t>
+  </si>
+  <si>
+    <t>rt @senadorhumberto: despreparado e incompetente, bolsonaro está afundando o país. hoje, a petrobras liderou as perdas do ibovespa e perdeu…</t>
+  </si>
+  <si>
+    <t>rt @mauricioabdal11: acho interessante analistas econômicos neoliberais e até anarcocapitalistas falando sobre a urgência dos governos da c…</t>
+  </si>
+  <si>
+    <t>@augustosnunes enquanto isso o mercado especulativo de guedes está, estuprando a economia brasileira!</t>
+  </si>
+  <si>
+    <t>fui no mercado reclamando voltei reclamando mas 🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>rt @renovamidia: o presidente-executivo da #heineken no brasil declarou:
 "estamos antecipando em um ano todos os investimentos de nosso pl…</t>
   </si>
   <si>
-    <t xml:space="preserve">@plynchado o mercado muito cair ainda abaixo da mínima de 86k. mas quando essa porra reagir (acredito não demorar muito), vai ser uma das maiores reações da história 🚀🚀🚀🚀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">petrobras perde r$ 91 bi em valor de mercado, maior queda em mais de 30 anos https://t.co/ir2g8vqyoi https://t.co/k2uzepzxcu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @gfiuza_oficial: a resistência cosmética está eufórica com a convulsão do mercado. de chefes de poder, como r. maia, a chefes de nada, c…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu preciso ir no mercado mas tá muito calor e eu tenho certeza que se eu pisar o pé na rua eu desmaio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na iminência do caos, tudo perde significado (pq os signos bagunçam) e a fragilidade da cultura do emprego imbecil nosso de cada dia - yuppies, mercado financeiro que vive de usar terno só etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">da mesma forma que aconteceu em 2002, 2009...
+    <t>@plynchado o mercado muito cair ainda abaixo da mínima de 86k. mas quando essa porra reagir (acredito não demorar muito), vai ser uma das maiores reações da história 🚀🚀🚀🚀</t>
+  </si>
+  <si>
+    <t>petrobras perde r$ 91 bi em valor de mercado, maior queda em mais de 30 anos https://t.co/ir2g8vqyoi https://t.co/k2uzepzxcu</t>
+  </si>
+  <si>
+    <t>rt @gfiuza_oficial: a resistência cosmética está eufórica com a convulsão do mercado. de chefes de poder, como r. maia, a chefes de nada, c…</t>
+  </si>
+  <si>
+    <t>eu preciso ir no mercado mas tá muito calor e eu tenho certeza que se eu pisar o pé na rua eu desmaio</t>
+  </si>
+  <si>
+    <t>na iminência do caos, tudo perde significado (pq os signos bagunçam) e a fragilidade da cultura do emprego imbecil nosso de cada dia - yuppies, mercado financeiro que vive de usar terno só etc</t>
+  </si>
+  <si>
+    <t>da mesma forma que aconteceu em 2002, 2009...
 criasse uma pandemia que vai "matar todo mundo" o mercado enlouquece a china compra barato supre suas nescecidades e continua crescendo... https://t.co/jjkbucj0d8</t>
   </si>
   <si>
-    <t xml:space="preserve">eu queria ta fazendo qualquer coisa que nao fosse o que to fazendo agora: aula de mercado financeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@cestlavie_t falar nisso boneca, bora no mercado que eu boto os materiais!! tu mete o gás e a braba p fazer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@chershire_catus @blogguerrilha @jairbolsonaro então acho que é muita coincidência o mercado reagir de forma negativa a cada mal posicionamento.
+    <t>eu queria ta fazendo qualquer coisa que nao fosse o que to fazendo agora: aula de mercado financeiro</t>
+  </si>
+  <si>
+    <t>@cestlavie_t falar nisso boneca, bora no mercado que eu boto os materiais!! tu mete o gás e a braba p fazer</t>
+  </si>
+  <si>
+    <t>@chershire_catus @blogguerrilha @jairbolsonaro então acho que é muita coincidência o mercado reagir de forma negativa a cada mal posicionamento.
 o valor do dólar pode ter subido por causa dos antigos governos, mas a quase 5 reais, com desvalorizações históricas na bolsa?</t>
   </si>
   <si>
-    <t xml:space="preserve">@crf_zao é foda mano, é uma parada que facilita muito a nossa vida. mas por outro lado as pessoas perdem empregos e vão sendo mais desvalorizadas no mercado de trabalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isso já aconteceu parecido no passado recente.
+    <t>@crf_zao é foda mano, é uma parada que facilita muito a nossa vida. mas por outro lado as pessoas perdem empregos e vão sendo mais desvalorizadas no mercado de trabalho</t>
+  </si>
+  <si>
+    <t>isso já aconteceu parecido no passado recente.
 o embate do preço veio mais para tentar minar o “shale gas” dos eua do que qualquer outro motivo!
 além disso, “limpa” concorrentes menores do mercado que não conseguem operar com petróleo nesse preço.</t>
   </si>
   <si>
-    <t xml:space="preserve">graca a deus conseguir compra a chuteira pro vinicius,  missão cumprida. 🤦‍♀️🙌  agr vou ir no mercado fazer logo a compras porque eu so enrolo. 😂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @ailtonbenedito: produção industrial sobe 0,9% em janeiro de 2020 na comparação mensal, acima do esperado pelo mercado. crescimento 50%…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@heitorifodase @iuris_man cara, nenhuma profissão é fácil. se tu virar maquiador, vai passar por desrespeito e dificuldade no mercado. se tu virar advogado, a mesma coisa. só não passa perrengue quanto a profissão quem não ta vivo ou ganhou fortuna do pai. resto é resto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @ondevcfoi: quando eu era pequeno no mercado e minha mãe não queria comprar oq eu queria: https://t.co/sapf7rivkv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vamos injetar dinheiro na economia, fazer obras de infraestrutura, estimular o mercado interno, gerar emprego, coletar impostos e fortalecer a moeda?
+    <t>graca a deus conseguir compra a chuteira pro vinicius,  missão cumprida. 🤦‍♀️🙌  agr vou ir no mercado fazer logo a compras porque eu so enrolo. 😂</t>
+  </si>
+  <si>
+    <t>rt @ailtonbenedito: produção industrial sobe 0,9% em janeiro de 2020 na comparação mensal, acima do esperado pelo mercado. crescimento 50%…</t>
+  </si>
+  <si>
+    <t>@heitorifodase @iuris_man cara, nenhuma profissão é fácil. se tu virar maquiador, vai passar por desrespeito e dificuldade no mercado. se tu virar advogado, a mesma coisa. só não passa perrengue quanto a profissão quem não ta vivo ou ganhou fortuna do pai. resto é resto.</t>
+  </si>
+  <si>
+    <t>rt @ondevcfoi: quando eu era pequeno no mercado e minha mãe não queria comprar oq eu queria: https://t.co/sapf7rivkv</t>
+  </si>
+  <si>
+    <t>vamos injetar dinheiro na economia, fazer obras de infraestrutura, estimular o mercado interno, gerar emprego, coletar impostos e fortalecer a moeda?
 não, vamos fortalecer amoedo. https://t.co/bg7pdabzlq</t>
   </si>
   <si>
-    <t xml:space="preserve">@sinnerprint @gastraube @bchartsnet colocam para mostrar a equivalência de cada não pq puras é melhor. até pq sabemos que vivemos atualmente na era dos stream e não adianta nada ter vendido milhões em puras no passado e no presente sofrer pra receber um gold com stream. os streaming ditam o mercado agora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decidi ir no mercado já que estava animada e levei a câmera p tirar umas fotos (sim tiro foto nada a ver das coisas no mercado). cheguei e vi que não troquei o filme e acabei usando o filme que menos gosto..... tá belê</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@alan_braga_ @luiz_felippo1 o problema é que poucas pessoas tem essa calma de análise. a maioria dos participantes do mercado são curto prazista.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mulheres à frente do mercado de serigrafia, sign e têxtil https://t.co/5zse5vgytb https://t.co/ejr2gt0027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@marisascruz @lobaoeletrico .o mais novo virologista do mercado!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @gabrieldivan: atenção para a declaração do super ministro genial mago do mercado e esteio técnico do bolsonarismo, paulo guedes:
+    <t>@sinnerprint @gastraube @bchartsnet colocam para mostrar a equivalência de cada não pq puras é melhor. até pq sabemos que vivemos atualmente na era dos stream e não adianta nada ter vendido milhões em puras no passado e no presente sofrer pra receber um gold com stream. os streaming ditam o mercado agora</t>
+  </si>
+  <si>
+    <t>decidi ir no mercado já que estava animada e levei a câmera p tirar umas fotos (sim tiro foto nada a ver das coisas no mercado). cheguei e vi que não troquei o filme e acabei usando o filme que menos gosto..... tá belê</t>
+  </si>
+  <si>
+    <t>@alan_braga_ @luiz_felippo1 o problema é que poucas pessoas tem essa calma de análise. a maioria dos participantes do mercado são curto prazista.</t>
+  </si>
+  <si>
+    <t>mulheres à frente do mercado de serigrafia, sign e têxtil https://t.co/5zse5vgytb https://t.co/ejr2gt0027</t>
+  </si>
+  <si>
+    <t>@marisascruz @lobaoeletrico .o mais novo virologista do mercado!</t>
+  </si>
+  <si>
+    <t>rt @gabrieldivan: atenção para a declaração do super ministro genial mago do mercado e esteio técnico do bolsonarismo, paulo guedes:
 "agor…</t>
   </si>
   <si>
-    <t xml:space="preserve">minha mãe pinta comigo aqui no mercado cara, eu não aguentooooo kkkkkkkkkk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @lpbragancabr: no mercado financeiro, os objetivos de longo prazo são os objetivos de curto prazo que deram errado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@felipecojeda e agora, não há moeda ? não há produtos e serviços sendo trocados ? e mesmo assim vc não diz que o mercado não é livre ?
+    <t>minha mãe pinta comigo aqui no mercado cara, eu não aguentooooo kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>rt @lpbragancabr: no mercado financeiro, os objetivos de longo prazo são os objetivos de curto prazo que deram errado.</t>
+  </si>
+  <si>
+    <t>@felipecojeda e agora, não há moeda ? não há produtos e serviços sendo trocados ? e mesmo assim vc não diz que o mercado não é livre ?
 não dá pra ficar confrontando realidades com fantasias. sim, os filósofos escolásticos conheciam o mercado. não, o mercado que eles conheciam não era "livre".</t>
   </si>
   <si>
-    <t xml:space="preserve">@sergioramone63 se tiver q ir, q seja pela multa (100%), q seja já: daria tempo de ir ao mercado achar outra "mosca branca"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@gmonteirorj @pmerj @wilsonwitzel @jairbolsonaro primeiro isso aí só prova o que o coronel disse, segundo que a @pmerj disse que você recebeu 70 advertências e 16 punições, isso em 4 anos no posto mais baixo. no mercado você teria sido demitido em menos de 1 mês. agradeça a paciência dos seus superiores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @_makavelijones: e esses "analistas do mercado" sempre erram? 
+    <t>@sergioramone63 se tiver q ir, q seja pela multa (100%), q seja já: daria tempo de ir ao mercado achar outra "mosca branca"</t>
+  </si>
+  <si>
+    <t>@gmonteirorj @pmerj @wilsonwitzel @jairbolsonaro primeiro isso aí só prova o que o coronel disse, segundo que a @pmerj disse que você recebeu 70 advertências e 16 punições, isso em 4 anos no posto mais baixo. no mercado você teria sido demitido em menos de 1 mês. agradeça a paciência dos seus superiores.</t>
+  </si>
+  <si>
+    <t>rt @_makavelijones: e esses "analistas do mercado" sempre erram? 
 é erro não. é ideologia burguesa encobrindo os interesses da burguesia!…</t>
   </si>
   <si>
-    <t xml:space="preserve">@raphafigueredo é aquela sensação de que o mercado vai a qualquer hora explodir pra cima ou pra baixo.
+    <t>@raphafigueredo é aquela sensação de que o mercado vai a qualquer hora explodir pra cima ou pra baixo.
 ou pra os dois lados, primeiro pra um e logo depois pro outro 😂😂</t>
   </si>
   <si>
-    <t xml:space="preserve">o mercado de trabalho tá cada dia mais exigente https://t.co/0fz3eetauk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu compro uma quantidade de coisas no mercado como se eu tivesse carro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hbredda: 28. a ideia é p/ q vc tire vantagens dessa gangorra emocional do sr mercado. esse maluco é um fornecedor preços. qdo o sr merc…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@wg1903 pelo menos eu posso ir na rua, no mercado, em festa. aqui não tem corona vírus hauhauahhuaau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mais uma do deus mercado, fiquemos atentos. https://t.co/hccwpcilgy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@pedrocerize se fosse escolher um cara pra sentar do lado por 1 semana pra analisar negócios e aprender sobre mercado seria voce. bom, sem firula!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @imcheed: to no mercado querem algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @ricardo_savino: vamos injetar dinheiro na economia, fazer obras de infraestrutura, estimular o mercado interno, gerar emprego, coletar…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minha mãe tem pavor de eu ir no mercado sozinha com o cartão dela kkkk mas hoje ela liberou 🥵🤤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@veramagalhaes to sentindo o mercado meio que com medo...medo de nós? ora...pior seria a corrupção sistemica.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @thaisbolinaaa: o tempo voa mano, cês tem noção que já tem ovo de páscoa nos mercado e que ontem foi a virada do ano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @ecantanhede: procura-se alguém para explicar por que o presidente decidiu tumultuar ainda mais o ambiente com a história de fraude nas…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @leandroruschel: é a maior queda no ibov para um dia desde 1998, durante a crise russa, a primeira crise que eu experimentei como trader…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@leonelangello9 eres nostradamus? o una especie de walter mercado o que pedo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@luis5henrique como o livre mercado só foi surgir séculos depois? 
+    <t>o mercado de trabalho tá cada dia mais exigente https://t.co/0fz3eetauk</t>
+  </si>
+  <si>
+    <t>eu compro uma quantidade de coisas no mercado como se eu tivesse carro</t>
+  </si>
+  <si>
+    <t>rt @hbredda: 28. a ideia é p/ q vc tire vantagens dessa gangorra emocional do sr mercado. esse maluco é um fornecedor preços. qdo o sr merc…</t>
+  </si>
+  <si>
+    <t>@wg1903 pelo menos eu posso ir na rua, no mercado, em festa. aqui não tem corona vírus hauhauahhuaau</t>
+  </si>
+  <si>
+    <t>mais uma do deus mercado, fiquemos atentos. https://t.co/hccwpcilgy</t>
+  </si>
+  <si>
+    <t>@pedrocerize se fosse escolher um cara pra sentar do lado por 1 semana pra analisar negócios e aprender sobre mercado seria voce. bom, sem firula!</t>
+  </si>
+  <si>
+    <t>rt @imcheed: to no mercado querem algo</t>
+  </si>
+  <si>
+    <t>rt @ricardo_savino: vamos injetar dinheiro na economia, fazer obras de infraestrutura, estimular o mercado interno, gerar emprego, coletar…</t>
+  </si>
+  <si>
+    <t>minha mãe tem pavor de eu ir no mercado sozinha com o cartão dela kkkk mas hoje ela liberou 🥵🤤</t>
+  </si>
+  <si>
+    <t>@veramagalhaes to sentindo o mercado meio que com medo...medo de nós? ora...pior seria a corrupção sistemica.</t>
+  </si>
+  <si>
+    <t>rt @thaisbolinaaa: o tempo voa mano, cês tem noção que já tem ovo de páscoa nos mercado e que ontem foi a virada do ano</t>
+  </si>
+  <si>
+    <t>rt @ecantanhede: procura-se alguém para explicar por que o presidente decidiu tumultuar ainda mais o ambiente com a história de fraude nas…</t>
+  </si>
+  <si>
+    <t>rt @leandroruschel: é a maior queda no ibov para um dia desde 1998, durante a crise russa, a primeira crise que eu experimentei como trader…</t>
+  </si>
+  <si>
+    <t>@leonelangello9 eres nostradamus? o una especie de walter mercado o que pedo?</t>
+  </si>
+  <si>
+    <t>@luis5henrique como o livre mercado só foi surgir séculos depois? 
 naquela época não havia escambo? não haviam moedas! não haviam produtos e serviços sendo trocados?</t>
   </si>
   <si>
-    <t xml:space="preserve">a economia se derrete com pânico na bolsa, dólar em disparada, pibinho de 1,1%, gasolina a 4,97 e desemprego em 12 milhões. qdo bozo vai parar de fazer circo e começar a governar?
+    <t>a economia se derrete com pânico na bolsa, dólar em disparada, pibinho de 1,1%, gasolina a 4,97 e desemprego em 12 milhões. qdo bozo vai parar de fazer circo e começar a governar?
 pânico no mercado: bolsa desaba 12% e dólar dispara https://t.co/kzee6akdlc via @conversaafiada</t>
   </si>
   <si>
-    <t xml:space="preserve">ok, vai criar 65m novos empregos... mas como as pessoas do mercado atual vão se preparar para essa mudança tão drástica, me fala ? https://t.co/klmbqcw8at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu acredito que é difícil, vc trabalhar em uma empresa, buscar inovação, querer ser diferenciado, olhando só pra dentro, sem olhar os players do mercado, e o pior é que eu to vivenciando isso direto +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @kakau: a mão invisível do mercado tá passando na sua bunda de novo (defenda o sus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lugares que quando eu entro, faço a festa.. mercado, farmácia e utilicasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@lukehemerly ao mesmo tempo q to adorando essa "mudança", eu tenho medo de ela se afastar muito do mercado brasileiro... mas vamos vendo. sdds de um hitzão tipo vai malandra, sua cara, paradinha, downtown....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@eulerscosta @gleisi o sus é um lixo indigno de qualquer ser humano. e olha que não custa barato. se todo esse dinheiro ficasse na mão do trabalhador ele teria mais dignidade e squeceria o mercado de saúde.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @sopeswmba: cheguei no mercado e esqueci o que eu ia comprar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o daniel tem cara daquelas crianças que rola no chão do mercado fazendo pirraça quando a mãe nega de comprar danoninho.
+    <t>ok, vai criar 65m novos empregos... mas como as pessoas do mercado atual vão se preparar para essa mudança tão drástica, me fala ? https://t.co/klmbqcw8at</t>
+  </si>
+  <si>
+    <t>eu acredito que é difícil, vc trabalhar em uma empresa, buscar inovação, querer ser diferenciado, olhando só pra dentro, sem olhar os players do mercado, e o pior é que eu to vivenciando isso direto +</t>
+  </si>
+  <si>
+    <t>rt @kakau: a mão invisível do mercado tá passando na sua bunda de novo (defenda o sus)</t>
+  </si>
+  <si>
+    <t>lugares que quando eu entro, faço a festa.. mercado, farmácia e utilicasa</t>
+  </si>
+  <si>
+    <t>@lukehemerly ao mesmo tempo q to adorando essa "mudança", eu tenho medo de ela se afastar muito do mercado brasileiro... mas vamos vendo. sdds de um hitzão tipo vai malandra, sua cara, paradinha, downtown....</t>
+  </si>
+  <si>
+    <t>@eulerscosta @gleisi o sus é um lixo indigno de qualquer ser humano. e olha que não custa barato. se todo esse dinheiro ficasse na mão do trabalhador ele teria mais dignidade e squeceria o mercado de saúde.</t>
+  </si>
+  <si>
+    <t>rt @sopeswmba: cheguei no mercado e esqueci o que eu ia comprar</t>
+  </si>
+  <si>
+    <t>o daniel tem cara daquelas crianças que rola no chão do mercado fazendo pirraça quando a mãe nega de comprar danoninho.
 #bbb20</t>
   </si>
   <si>
-    <t xml:space="preserve">3) caso ocorra o espalhamento, vamos ter que desacelerar nas fábricas e no comércio, e isso vai derrubar a bolsa.  4) é uma situação complexa, não dá para investir agora. 5) vou permanecer fora do mercado por mais tempo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @midia_ancap: seguinte: 
+    <t>3) caso ocorra o espalhamento, vamos ter que desacelerar nas fábricas e no comércio, e isso vai derrubar a bolsa.  4) é uma situação complexa, não dá para investir agora. 5) vou permanecer fora do mercado por mais tempo.</t>
+  </si>
+  <si>
+    <t>rt @midia_ancap: seguinte: 
 #osaustriacosavisaram vai ser a nossa tag
 e sim, o corona e o petróleo foram o que fez a bolsa derreter hoje.…</t>
   </si>
   <si>
-    <t xml:space="preserve">quem vai pra casa  logo? guedes ou regina? se depender da mídia corporativa, como o guedes representa o mercado, quem vai é a regina.https://t.co/mgvvgxikxc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nesse curso ensinamos tudo que um pessoa precisa saber para fazer dinheiro,no mercado finaceiro . 
+    <t>quem vai pra casa  logo? guedes ou regina? se depender da mídia corporativa, como o guedes representa o mercado, quem vai é a regina.https://t.co/mgvvgxikxc</t>
+  </si>
+  <si>
+    <t>nesse curso ensinamos tudo que um pessoa precisa saber para fazer dinheiro,no mercado finaceiro . 
 do básico ao avançado, esse é um curso que transformará qualquer iniciante em bolsa em um trader profissional.
 https://t.co/qtxj4iz7d9
 #trade #traderiniciantes #cursodetrader</t>
   </si>
   <si>
-    <t xml:space="preserve">to cansada p crlh, ainda tive q vim no mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ggrazigomes uma vez uma mulher fez isso lá no mercado do café. imitei ela.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @alfredomenezes6: o lote de petro do bndes vendido por  r$ 22 bi, vale agora a mercado r$ 13 bi.  
+    <t>to cansada p crlh, ainda tive q vim no mercado</t>
+  </si>
+  <si>
+    <t>@ggrazigomes uma vez uma mulher fez isso lá no mercado do café. imitei ela.</t>
+  </si>
+  <si>
+    <t>rt @alfredomenezes6: o lote de petro do bndes vendido por  r$ 22 bi, vale agora a mercado r$ 13 bi.  
 r$ 9 no de prejuízo no mercado</t>
   </si>
   <si>
-    <t xml:space="preserve">daqui a pouco vai ter stories até pra fazer compra no mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@marcelogodoy_ @lelispatricia poder, pode. mas elas não exercem influência sobre mercado. e essas duas pessoas não tem nem 10% da influência do presidente
+    <t>daqui a pouco vai ter stories até pra fazer compra no mercado</t>
+  </si>
+  <si>
+    <t>@marcelogodoy_ @lelispatricia poder, pode. mas elas não exercem influência sobre mercado. e essas duas pessoas não tem nem 10% da influência do presidente
 uma sequer se elegeu senadora. o outro é condenado, não pode concorrer e a voz dele ecoa na esquerda lulista (talvez mesma % dos bolsonaristas fanáticos)</t>
   </si>
   <si>
-    <t xml:space="preserve">acho interessante analistas econômicos neoliberais e até anarcocapitalistas falando sobre a urgência dos governos da china e eua tomarem medidas para conter a crise e as perdas dos investidores no mercado por causa  do corona vírus.
+    <t>acho interessante analistas econômicos neoliberais e até anarcocapitalistas falando sobre a urgência dos governos da china e eua tomarem medidas para conter a crise e as perdas dos investidores no mercado por causa  do corona vírus.
 o mercado não se "auto-regula"? então se virem.</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @canalfutebol_sa: clube de futebol tomar dinheiro no mercado,  clean (s/ garantias), com juros de 9% a.a. é resultado do conceito de cré…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#entrevistas  philippe fossaert, gerente de clasificados 
+    <t>rt @canalfutebol_sa: clube de futebol tomar dinheiro no mercado,  clean (s/ garantias), com juros de 9% a.a. é resultado do conceito de cré…</t>
+  </si>
+  <si>
+    <t>#entrevistas  philippe fossaert, gerente de clasificados 
  de 
 @ml_colombia
 https://t.co/z5cuzb7ypv
 #eliteinmobiliaria</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @thiagokrause2: quando a bovespa subia, era mérito do governo. quando cai, não é nada (e coronavírus é “fantasia” - desgraçado irrespons…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tá mas qnd q o mercado das fanfics de 2ha vão aumentar???????</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vamos lanchar?
+    <t>rt @thiagokrause2: quando a bovespa subia, era mérito do governo. quando cai, não é nada (e coronavírus é “fantasia” - desgraçado irrespons…</t>
+  </si>
+  <si>
+    <t>tá mas qnd q o mercado das fanfics de 2ha vão aumentar???????</t>
+  </si>
+  <si>
+    <t>vamos lanchar?
 cupom do ifood (app) =&amp;gt; ee6hz487al
 código rappi =&amp;gt; 82q38640354
 uber -&amp;gt; rjefc5
@@ -288,45 +293,45 @@
 ofertas da amazon, airbnb, recargapay, mercado livre e pagseguro no nosso perfil https://t.co/yas1klzv2l</t>
   </si>
   <si>
-    <t xml:space="preserve">coronavírus: produção de celulares sofre desfalque de 70% no país https://t.co/0kicgnloeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">às 11h29, o volume de títulos negociados em ­­­cosan – csan3 estava 196,89% maior do que costuma o normal, com base na média deste horário dos últimos 3 meses. https://t.co/bew5d8cnqz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @toonda: pela cotação atual do mercado de comunicação uma imagem vale exatamente 847 palavras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mulheres à frente do mercado de serigrafia, sign e têxtil https://t.co/irzgqbnzqi https://t.co/inpun41fai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">so quem vai levar bolsa térmica, comprar cerveja no mercado que é mais barato, pegar gelo na máquina do ccs e ir beber na festa em</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@xboxmilgrau_ mas veja bem, é uma estratégia de mercado, outras pessoas vão poder jogar essa obra de arte! sony wins!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@crfjuniu @caioo_bfr @ericsanderr preço do iphone mais furreca do mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @anarcobs: e o pau torando no mercado financeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @jenniekimbrasil: "[...] a yg entertainment afirmou que o #blackpink está ganhando muita popularidade no mercado global; anualmente, ele…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">😱 está assustado com as turbulências do mercado? 
+    <t>coronavírus: produção de celulares sofre desfalque de 70% no país https://t.co/0kicgnloeg</t>
+  </si>
+  <si>
+    <t>às 11h29, o volume de títulos negociados em ­­­cosan – csan3 estava 196,89% maior do que costuma o normal, com base na média deste horário dos últimos 3 meses. https://t.co/bew5d8cnqz</t>
+  </si>
+  <si>
+    <t>rt @toonda: pela cotação atual do mercado de comunicação uma imagem vale exatamente 847 palavras</t>
+  </si>
+  <si>
+    <t>mulheres à frente do mercado de serigrafia, sign e têxtil https://t.co/irzgqbnzqi https://t.co/inpun41fai</t>
+  </si>
+  <si>
+    <t>so quem vai levar bolsa térmica, comprar cerveja no mercado que é mais barato, pegar gelo na máquina do ccs e ir beber na festa em</t>
+  </si>
+  <si>
+    <t>@xboxmilgrau_ mas veja bem, é uma estratégia de mercado, outras pessoas vão poder jogar essa obra de arte! sony wins!!!</t>
+  </si>
+  <si>
+    <t>@crfjuniu @caioo_bfr @ericsanderr preço do iphone mais furreca do mercado</t>
+  </si>
+  <si>
+    <t>rt @anarcobs: e o pau torando no mercado financeiro</t>
+  </si>
+  <si>
+    <t>rt @jenniekimbrasil: "[...] a yg entertainment afirmou que o #blackpink está ganhando muita popularidade no mercado global; anualmente, ele…</t>
+  </si>
+  <si>
+    <t>😱 está assustado com as turbulências do mercado? 
 em primeiro lugar, take it easy.  😊
 nós selecionamos as principais informações que vem acontecendo no mundo das finanças e que podem mexer no seu bolso. veja a thread do nosso diretor @ftota  ↓</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @barangurter: mercado: estimula o governo a matar o pobre
+    <t>rt @barangurter: mercado: estimula o governo a matar o pobre
 governo: deixa o pobre morrer
 pobre: morre
 ex-pobre atual defunto: não cons…</t>
   </si>
   <si>
-    <t xml:space="preserve">olha aí seu presentim :)
+    <t>olha aí seu presentim :)
 cupom do ifood (app) =&amp;gt; ee6hz487al
 código rappi =&amp;gt; 82q38640354
 uber -&amp;gt; rjefc5
@@ -336,169 +341,169 @@
 ofertas amazon, airbnb, recargapay, mercado livre, pagseguro lá no perfil! https://t.co/jb3kjg4fjr</t>
   </si>
   <si>
-    <t xml:space="preserve">@jornalhojeemdia vish, será que o mercado está grande para estagiários de twitter?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hbredda: 24. a crença de p. carret no poder de criação de valor das empresas, e na valorização das companhias ao longo do tempo, o mant…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oq aconteceu na opep mostra de certa forma que carteis são impossíveis num livre-mercado, é uma comparação estranha e n pode ser levada mt a sério, mas uma vez que os estados estão em uma certa forma de anarquia no mundo, talvez isso mostre oq ocorreria num livre-mercado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hbredda: 27. o sr mercado é uma pessoa com personalidade instável, às vezes tomada pelo pânico, outras pela euforia, tendo característi…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faltam menos de seis meses para o início da vigência plena da lei geral de proteção de dados, a lgpd. ela foi editada e aprovada pelo congresso nacional em 2018, como resposta à demanda do mercado internacional pela preservação da liberdade, da intimidade e da privacidade +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">após black monday, bolsa sobe 3% e dólar cai 1,45%, a r$ 4,658
+    <t>@jornalhojeemdia vish, será que o mercado está grande para estagiários de twitter?</t>
+  </si>
+  <si>
+    <t>rt @hbredda: 24. a crença de p. carret no poder de criação de valor das empresas, e na valorização das companhias ao longo do tempo, o mant…</t>
+  </si>
+  <si>
+    <t>oq aconteceu na opep mostra de certa forma que carteis são impossíveis num livre-mercado, é uma comparação estranha e n pode ser levada mt a sério, mas uma vez que os estados estão em uma certa forma de anarquia no mundo, talvez isso mostre oq ocorreria num livre-mercado.</t>
+  </si>
+  <si>
+    <t>rt @hbredda: 27. o sr mercado é uma pessoa com personalidade instável, às vezes tomada pelo pânico, outras pela euforia, tendo característi…</t>
+  </si>
+  <si>
+    <t>faltam menos de seis meses para o início da vigência plena da lei geral de proteção de dados, a lgpd. ela foi editada e aprovada pelo congresso nacional em 2018, como resposta à demanda do mercado internacional pela preservação da liberdade, da intimidade e da privacidade +</t>
+  </si>
+  <si>
+    <t>após black monday, bolsa sobe 3% e dólar cai 1,45%, a r$ 4,658
 https://t.co/yn8jwemds6 https://t.co/ewjaryxh11</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @_makavelijones: f - uma agressiva política de ampliação do mercado interno a partir de investimentos massivos em direitos sociais, salá…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@acsdrz hahaha eu n consigo me imaginar comprando essas coisas sem ser em mercado. sou muito velho.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vou tomar um açaí dps que eu pagar as contas e ir no mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @oglobo_economia: bolsa sobe quase 5%, após o tombo da véspera; dólar recua a r$ 4,67. anúncio de estímulos fiscais nos eua e leilão à v…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @dk_multimarcas_: dk multimarcas retorna com a promoção!!
+    <t>rt @_makavelijones: f - uma agressiva política de ampliação do mercado interno a partir de investimentos massivos em direitos sociais, salá…</t>
+  </si>
+  <si>
+    <t>@acsdrz hahaha eu n consigo me imaginar comprando essas coisas sem ser em mercado. sou muito velho.</t>
+  </si>
+  <si>
+    <t>vou tomar um açaí dps que eu pagar as contas e ir no mercado</t>
+  </si>
+  <si>
+    <t>rt @oglobo_economia: bolsa sobe quase 5%, após o tombo da véspera; dólar recua a r$ 4,67. anúncio de estímulos fiscais nos eua e leilão à v…</t>
+  </si>
+  <si>
+    <t>rt @dk_multimarcas_: dk multimarcas retorna com a promoção!!
 aqui quanto mais vc compra, mais vem desconto! então, nn perca tempo, faça já…</t>
   </si>
   <si>
-    <t xml:space="preserve">minha vizinha foi no mercado comprar batata palha pra mim 🤩❤️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @eduquim101: boa noite meus amigos patriotas. 
+    <t>minha vizinha foi no mercado comprar batata palha pra mim 🤩❤️</t>
+  </si>
+  <si>
+    <t>rt @eduquim101: boa noite meus amigos patriotas. 
 atenção!
 os endinheirados especuladores do mercado financeiro, alguns políticos e jornal…</t>
   </si>
   <si>
-    <t xml:space="preserve">mulheres à frente do mercado de serigrafia, sign e têxtil https://t.co/ll63rm26aq https://t.co/r1g2l7fgpu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@sofia_ksantos tu ta na faculdade: ah faculdade eh fácil quero ver qnd entrar no mercado de trabalho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com as inovações do mercado, atualmente o telefone já é utilizado via internet, com muito mais facilidade oferecida pela tecnologia voip 🗣📞
+    <t>mulheres à frente do mercado de serigrafia, sign e têxtil https://t.co/ll63rm26aq https://t.co/r1g2l7fgpu</t>
+  </si>
+  <si>
+    <t>@sofia_ksantos tu ta na faculdade: ah faculdade eh fácil quero ver qnd entrar no mercado de trabalho</t>
+  </si>
+  <si>
+    <t>com as inovações do mercado, atualmente o telefone já é utilizado via internet, com muito mais facilidade oferecida pela tecnologia voip 🗣📞
 conheça mais sobre essa revolução 👉 https://t.co/xi6duvy2a3</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @cahemota: filipe: “entendemos que as pessoas nos coloquem esse cartaz, mas sabemos que o que define a libertadores é o mercado do verão…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">já conhece nossas soluções? 
+    <t>rt @cahemota: filipe: “entendemos que as pessoas nos coloquem esse cartaz, mas sabemos que o que define a libertadores é o mercado do verão…</t>
+  </si>
+  <si>
+    <t>já conhece nossas soluções? 
 somos a oazez software e tecnologia estamos no mercado desde 1996, com o objetivo de atender exclusivamente o setor de saúde suplementar, formado por operadoras de plano de saúde, hospitais, clínicas e cooperativas, nos segmentos médico, odontológico. https://t.co/e64jnffepi</t>
   </si>
   <si>
-    <t xml:space="preserve">@rodrigorotzsch @fredaosoares @pablomv5 só olhar o valor de mercado dos times lá ta longe ainda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @indiretasarroba: eu com 8 anos pedindo pra minha mãe comprar essa bala no mercado https://t.co/kthfmpw2t2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na boa, aprender sobre o mercado financeiro é muuuuito legal 😍😍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a mamada invisível do mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @ptbrasil: em 2008, o brasil também enfrentou a mais brutal crise econômica desde 1929, onde @lulaoficial apostou no mercado interno, na…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veja quais reflexos do preço do petróleo no mercado do milho
+    <t>@rodrigorotzsch @fredaosoares @pablomv5 só olhar o valor de mercado dos times lá ta longe ainda</t>
+  </si>
+  <si>
+    <t>rt @indiretasarroba: eu com 8 anos pedindo pra minha mãe comprar essa bala no mercado https://t.co/kthfmpw2t2</t>
+  </si>
+  <si>
+    <t>na boa, aprender sobre o mercado financeiro é muuuuito legal 😍😍</t>
+  </si>
+  <si>
+    <t>a mamada invisível do mercado</t>
+  </si>
+  <si>
+    <t>rt @ptbrasil: em 2008, o brasil também enfrentou a mais brutal crise econômica desde 1929, onde @lulaoficial apostou no mercado interno, na…</t>
+  </si>
+  <si>
+    <t>veja quais reflexos do preço do petróleo no mercado do milho
 entrevista com @eduardovanin4 
 acompanhe: https://t.co/vhf4gs0fen</t>
   </si>
   <si>
-    <t xml:space="preserve">meu bom senhor, que movimento foi naquele mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@fepaesleme eu sou paraense aqui em belém todos os dias tomamos açaí o açaí que vai pra ir e diferente não e como o original mas eu recomendo se um dia vim em belém açaí com dourada frita no mercado do ver o peso vcs nunca mas iram esquece maravilhoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @luisnassif: objetivo é conter volatilidade do dólar; entre segunda e terça-feira, us$ 5 bilhões foram injetados no mercado
+    <t>meu bom senhor, que movimento foi naquele mercado</t>
+  </si>
+  <si>
+    <t>@fepaesleme eu sou paraense aqui em belém todos os dias tomamos açaí o açaí que vai pra ir e diferente não e como o original mas eu recomendo se um dia vim em belém açaí com dourada frita no mercado do ver o peso vcs nunca mas iram esquece maravilhoso</t>
+  </si>
+  <si>
+    <t>rt @luisnassif: objetivo é conter volatilidade do dólar; entre segunda e terça-feira, us$ 5 bilhões foram injetados no mercado
 https://t.co…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @ciroprog: até os neoliberais defensores do mercado repercutiu, em novembro passado, a previsão do @cirogomes! #ciroavisou
+    <t>rt @ciroprog: até os neoliberais defensores do mercado repercutiu, em novembro passado, a previsão do @cirogomes! #ciroavisou
 https://t.co/…</t>
   </si>
   <si>
-    <t xml:space="preserve">eu e as guu comemos p krlh e depois ainda passamos no mercado p comprar bis e 2 litros de coca p levar na aula ksjsjsk obesas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@mcdonalds_br @mcdonalds do mercado @carrefourbrasil niterói manilha no rio sempre com sistema inoperante.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hbredda: @regisschorr da pra ganhar muito mais q o mercado. mas para isso tem q se mecher um pouco. é só isso q fazemos. mas sempre exp…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">em épocas de grande ruídos como agora, o que rege o mercado é a psicologia. https://t.co/mv5nlgzdm0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conheça o r7 afortunados, o lugar onde você tira suas dúvidas sobre o mercado financeiro https://t.co/wawcg0s5ss #r7afortunados - com @cmcapitaleplus https://t.co/hs6cgpmrt6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @arijuniorvieira: @fabiopf08fabio @christian_gpbr maia podiria corrigir: 
+    <t>eu e as guu comemos p krlh e depois ainda passamos no mercado p comprar bis e 2 litros de coca p levar na aula ksjsjsk obesas</t>
+  </si>
+  <si>
+    <t>@mcdonalds_br @mcdonalds do mercado @carrefourbrasil niterói manilha no rio sempre com sistema inoperante.</t>
+  </si>
+  <si>
+    <t>rt @hbredda: @regisschorr da pra ganhar muito mais q o mercado. mas para isso tem q se mecher um pouco. é só isso q fazemos. mas sempre exp…</t>
+  </si>
+  <si>
+    <t>em épocas de grande ruídos como agora, o que rege o mercado é a psicologia. https://t.co/mv5nlgzdm0</t>
+  </si>
+  <si>
+    <t>conheça o r7 afortunados, o lugar onde você tira suas dúvidas sobre o mercado financeiro https://t.co/wawcg0s5ss #r7afortunados - com @cmcapitaleplus https://t.co/hs6cgpmrt6</t>
+  </si>
+  <si>
+    <t>rt @arijuniorvieira: @fabiopf08fabio @christian_gpbr maia podiria corrigir: 
 -- me descupe, na verdade quem prometeu foi o 'mercado', por m…</t>
   </si>
   <si>
-    <t xml:space="preserve">@bollemdb o dinheiro tem preço.portanto quando um governo gasta mais do que arrecada, ele precisa ir ao mercado pegar dinheiro, inflacionando a moeda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">operadoras vão ao stf contra fim da validade do crédito pré-pago https://t.co/2idpffkofx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fofa é a duda que eu marco de ir na casa dela e quando chego, ela tá no mercado 🥰🥰🥰🥰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@bordoneioc @abcmachado posso ta falando besteira , mas eh isso que acontece com bolsa que se sustenta em um ou dois ativos ..
+    <t>@bollemdb o dinheiro tem preço.portanto quando um governo gasta mais do que arrecada, ele precisa ir ao mercado pegar dinheiro, inflacionando a moeda.</t>
+  </si>
+  <si>
+    <t>operadoras vão ao stf contra fim da validade do crédito pré-pago https://t.co/2idpffkofx</t>
+  </si>
+  <si>
+    <t>fofa é a duda que eu marco de ir na casa dela e quando chego, ela tá no mercado 🥰🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>@bordoneioc @abcmachado posso ta falando besteira , mas eh isso que acontece com bolsa que se sustenta em um ou dois ativos ..
 uma buffa do mercado e cai 25% .</t>
   </si>
   <si>
-    <t xml:space="preserve">meu namorado acabou de vir aqui onde eu trabalho e trouxe dois pães de queijo dizendo que passou no mercado e lembrou de mim, é sobre isso sabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @mottatarcisio: a mão invisível do mercado esqueceu de passar álcool gel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por mais perfeita que esteja a sua carteira hoje, procure revisá-la entre uma e duas vezes ao ano. é um processo que te “manterá no jogo” por mais tempo e o colocará acima da média geral do mercado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sim, a austeridade fiscal sempre dividiu economistas em basicamente dois grupos: os sérios, que a defendem; os populistas, que querem sempre mais gastos públicos e disfarçam isso com keynesianismo "anticíclico", só lembrado na hora da crise...
+    <t>meu namorado acabou de vir aqui onde eu trabalho e trouxe dois pães de queijo dizendo que passou no mercado e lembrou de mim, é sobre isso sabe</t>
+  </si>
+  <si>
+    <t>rt @mottatarcisio: a mão invisível do mercado esqueceu de passar álcool gel</t>
+  </si>
+  <si>
+    <t>por mais perfeita que esteja a sua carteira hoje, procure revisá-la entre uma e duas vezes ao ano. é um processo que te “manterá no jogo” por mais tempo e o colocará acima da média geral do mercado.</t>
+  </si>
+  <si>
+    <t>sim, a austeridade fiscal sempre dividiu economistas em basicamente dois grupos: os sérios, que a defendem; os populistas, que querem sempre mais gastos públicos e disfarçam isso com keynesianismo "anticíclico", só lembrado na hora da crise...
 https://t.co/xrox7t12cb</t>
   </si>
   <si>
-    <t xml:space="preserve">andando na rua, no ônibus, na praia, na igreja, em festas, na escola, no curso, dormindo, no mercado, lojas de roupa, milhões de lugares que nem eu lembro  mais https://t.co/ai4yeq9ymj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @catossss: o outro lado da moeda - os cursos profissionais - que se esforçam igualmente dentro daquilo que são os objetivos do curso. ta…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meu medo de comprar lp no mercado livre e essa porra vir errado/riscado é grande. até agora o vendedor não me respondeu sobre o keep the faith.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu e minha namorada decidimos quem vai lavar louça, quem vai no mercado,quem vai levantar p pegar algo da maneira mais civilizada do mundo!!! 
+    <t>andando na rua, no ônibus, na praia, na igreja, em festas, na escola, no curso, dormindo, no mercado, lojas de roupa, milhões de lugares que nem eu lembro  mais https://t.co/ai4yeq9ymj</t>
+  </si>
+  <si>
+    <t>rt @catossss: o outro lado da moeda - os cursos profissionais - que se esforçam igualmente dentro daquilo que são os objetivos do curso. ta…</t>
+  </si>
+  <si>
+    <t>meu medo de comprar lp no mercado livre e essa porra vir errado/riscado é grande. até agora o vendedor não me respondeu sobre o keep the faith.</t>
+  </si>
+  <si>
+    <t>eu e minha namorada decidimos quem vai lavar louça, quem vai no mercado,quem vai levantar p pegar algo da maneira mais civilizada do mundo!!! 
 pedra,papel e tesoura,melhor de 3..... democracia,o nome kkkkk</t>
   </si>
   <si>
-    <t xml:space="preserve">@uol não sei pq responde pra ele. é criança birrenta em mercado. deixa quieto que sossega.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @noflagsbrasil: dupla função!
+    <t>@uol não sei pq responde pra ele. é criança birrenta em mercado. deixa quieto que sossega.</t>
+  </si>
+  <si>
+    <t>rt @noflagsbrasil: dupla função!
 chegando a análise dos free agents da posição que cada vez ganha mais destaque na nfl. os tight ends. @na…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @folha: bolsa despenca 12% na pior queda do século https://t.co/kgeq2oxd12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obrigado né?
+    <t>rt @folha: bolsa despenca 12% na pior queda do século https://t.co/kgeq2oxd12</t>
+  </si>
+  <si>
+    <t>obrigado né?
 cupom do ifood (app) =&amp;gt; ee6hz487al
 código rappi =&amp;gt; 82q38640354
 uber -&amp;gt; rjefc5
@@ -508,51 +513,51 @@
 ofertas da amazon, airbnb, recargapay, mercado livre e pagseguro no perfil! https://t.co/t5solsxoba</t>
   </si>
   <si>
-    <t xml:space="preserve">governos democraticamente responsabilizáveis podem garantir mercados livres, justos e sustentáveis, com oportunidades para todos; sem isso sociedades caem no populismo que, de direita ou esquerda, mata o mercado.
+    <t>governos democraticamente responsabilizáveis podem garantir mercados livres, justos e sustentáveis, com oportunidades para todos; sem isso sociedades caem no populismo que, de direita ou esquerda, mata o mercado.
 negócios deveriam fomentar a  democracia: https://t.co/rk2bn74yws. https://t.co/q2vdkks6zl</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @roxmo: processo leva 63 anos para ser julgado no stf, e até advogados já morreram https://t.co/gdj00rcrzt // mas quando interessa a ele…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o programa de rádio sobre vinho falando oq vai acontecer com o mercado do vinho agora q o corona vírus impede as pessoas de viajarem pra europa  .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">um indicadore de fôlego de mercado é uma série de pontos de dados derivados a partir de uma fórmula.
+    <t>rt @roxmo: processo leva 63 anos para ser julgado no stf, e até advogados já morreram https://t.co/gdj00rcrzt // mas quando interessa a ele…</t>
+  </si>
+  <si>
+    <t>o programa de rádio sobre vinho falando oq vai acontecer com o mercado do vinho agora q o corona vírus impede as pessoas de viajarem pra europa  .</t>
+  </si>
+  <si>
+    <t>um indicadore de fôlego de mercado é uma série de pontos de dados derivados a partir de uma fórmula.
 se você quer operar na bolsa de valores e não tem medo de arriscar a própria pele, seja muito bem… https://t.co/fhuxtxv5qi</t>
   </si>
   <si>
-    <t xml:space="preserve">só deus pra me pegar no colo, me levar ao mercado e me trazer de volta pra casa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @flowertomlinson: 🛑🛑🛑  atenção atenção  🛑🛑🛑
+    <t>só deus pra me pegar no colo, me levar ao mercado e me trazer de volta pra casa</t>
+  </si>
+  <si>
+    <t>rt @flowertomlinson: 🛑🛑🛑  atenção atenção  🛑🛑🛑
 vocês poderiam me ajudar??? estou fazendo um trabalho de marketing na faculdade, e pra isso…</t>
   </si>
   <si>
-    <t xml:space="preserve">assista a "transtornos mentais na presidência!  a maldiç@o mmm: ministro, mídia e mercado: todos contra o povo!" no youtube https://t.co/xhkrbummfx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hbredda: eu tenho minha teoria. vc tem a sua? no final esses ativos terão trocado violentamente de mão, mas os meus eu não largo nem a…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @bmvmercados: apertura de mercado:
+    <t>assista a "transtornos mentais na presidência!  a maldiç@o mmm: ministro, mídia e mercado: todos contra o povo!" no youtube https://t.co/xhkrbummfx</t>
+  </si>
+  <si>
+    <t>rt @hbredda: eu tenho minha teoria. vc tem a sua? no final esses ativos terão trocado violentamente de mão, mas os meus eu não largo nem a…</t>
+  </si>
+  <si>
+    <t>rt @bmvmercados: apertura de mercado:
 $bmv s&amp;amp;p/bmv ipc 39,543.58 / +2.10% dólar spot: 21.0330</t>
   </si>
   <si>
-    <t xml:space="preserve">se não ganhar aqueles ovos de páscoa de unicórnio que vi no mercado, eu vou ficar muito triste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">não sou especialista em finanças, nem no mercado de ações, mas vou falar uma coisa pra vocês:
+    <t>se não ganhar aqueles ovos de páscoa de unicórnio que vi no mercado, eu vou ficar muito triste</t>
+  </si>
+  <si>
+    <t>não sou especialista em finanças, nem no mercado de ações, mas vou falar uma coisa pra vocês:
 a alta do dólar e a queda da bolsa tem muito mais a ver com certa convocação p/ manifestação e com a tentativa de tornar o coaf um órgão "para inglês ver" do que com o vírus. vai por mim</t>
   </si>
   <si>
-    <t xml:space="preserve">@keyfarnum a guerra do petróleo da rússia x arabia pode fuder com o dolar, até pq o gov americano injetou muito dólar na última semana para ajudar no combate ao covid-19, o que pode rolar é excesso de liquidez de dólar no mercado. vamos vendo, mas a dica é precaução!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@fabiojbacha @carlosmaggioli @mateusorsini taxas de emprego em suas máximas históricas antes de recessão, custos das empresas aumentando (salários), então lucro das empresas diminuindo já há algum tempo... no meu entender é a liquidez que o fed tem dado ao mercado que sustenta. porém esse corte de 0.50 mostrou desespero.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://t.co/rhr3rojnzz 
+    <t>@keyfarnum a guerra do petróleo da rússia x arabia pode fuder com o dolar, até pq o gov americano injetou muito dólar na última semana para ajudar no combate ao covid-19, o que pode rolar é excesso de liquidez de dólar no mercado. vamos vendo, mas a dica é precaução!</t>
+  </si>
+  <si>
+    <t>@fabiojbacha @carlosmaggioli @mateusorsini taxas de emprego em suas máximas históricas antes de recessão, custos das empresas aumentando (salários), então lucro das empresas diminuindo já há algum tempo... no meu entender é a liquidez que o fed tem dado ao mercado que sustenta. porém esse corte de 0.50 mostrou desespero.</t>
+  </si>
+  <si>
+    <t>https://t.co/rhr3rojnzz 
 facebook – marão mercado imobiliário
 skype -  marão mercado imobiliário
 youtube – josé ricardo marão 
@@ -563,183 +568,183 @@
 vídeos e produções https://t.co/xxxb79acmk</t>
   </si>
   <si>
-    <t xml:space="preserve">@givashist @romolosorrento @izzynobre entendo que os agentes do mercado estão trabalhando do mesmo jeito agora. a diferença que em 2016 havia o movimento político para desestabilizar o executivo, agora o executivo faz por conta própria, mostrando sim um baita despreparo que foi apontado lá atra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @henriquefontana: em 30 minutos a petrobras perdeu no cassino financeiro dos “roubos legalizados” mais de 10 vezes o que a operação lava…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vim no mercado de última hora pra comprar meu almoço, uma pizza, uma pepsi e um enroladinho + um biscoito integral pra n engordar ;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercado com marcação no chamado pra que os consumidores mantenham a distância mínima de um metro entre sì 🤧😷 https://t.co/qmsfeepwiw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a lotérica hoje tava pior que fila de mercado quando tá em promoção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @carlazambelli38: hoje, o mercado mundial, que já está em desaceleração, entrou em "pânico".
+    <t>@givashist @romolosorrento @izzynobre entendo que os agentes do mercado estão trabalhando do mesmo jeito agora. a diferença que em 2016 havia o movimento político para desestabilizar o executivo, agora o executivo faz por conta própria, mostrando sim um baita despreparo que foi apontado lá atra</t>
+  </si>
+  <si>
+    <t>rt @henriquefontana: em 30 minutos a petrobras perdeu no cassino financeiro dos “roubos legalizados” mais de 10 vezes o que a operação lava…</t>
+  </si>
+  <si>
+    <t>vim no mercado de última hora pra comprar meu almoço, uma pizza, uma pepsi e um enroladinho + um biscoito integral pra n engordar ;)</t>
+  </si>
+  <si>
+    <t>mercado com marcação no chamado pra que os consumidores mantenham a distância mínima de um metro entre sì 🤧😷 https://t.co/qmsfeepwiw</t>
+  </si>
+  <si>
+    <t>a lotérica hoje tava pior que fila de mercado quando tá em promoção</t>
+  </si>
+  <si>
+    <t>rt @carlazambelli38: hoje, o mercado mundial, que já está em desaceleração, entrou em "pânico".
 crises são comuns, mas o brasil pode andar…</t>
   </si>
   <si>
-    <t xml:space="preserve">tô indo no mercado comprar abacate e banana pra eu fzr vitamina.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hbredda: 26. para os acumuladores de ativos, é difícil achar uma analogia mais poderosa do q o "senhor mercado", um investidor imaginár…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meu pai: "filha vi no mercado e lembrei de vc, comprei logo 2!" 😃 
+    <t>tô indo no mercado comprar abacate e banana pra eu fzr vitamina.</t>
+  </si>
+  <si>
+    <t>rt @hbredda: 26. para os acumuladores de ativos, é difícil achar uma analogia mais poderosa do q o "senhor mercado", um investidor imaginár…</t>
+  </si>
+  <si>
+    <t>meu pai: "filha vi no mercado e lembrei de vc, comprei logo 2!" 😃 
 eh ou n eh o melhor pai do mundo????? 😊 
 #rexonadancestudio #nowunited https://t.co/5v1ekh2vbn</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @rogeriocorreia_: estes neoliberais incompetentes vão quebrar a petrobras e entregar de graça para o trump. 
+    <t>rt @rogeriocorreia_: estes neoliberais incompetentes vão quebrar a petrobras e entregar de graça para o trump. 
 aliás , foi isto o que prom…</t>
   </si>
   <si>
-    <t xml:space="preserve">@afccontador que tristeza... nosso país virou nada. a cada dia que passa a situação das minorias vai ficando pior. qual será nosso destino? nosso povo humilde será jogado em vala comum e ateado fogo, apenas mais  um holocausto mascarado de "mercado"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @samiabomfim: estão quebrando a petrobrás.
+    <t>@afccontador que tristeza... nosso país virou nada. a cada dia que passa a situação das minorias vai ficando pior. qual será nosso destino? nosso povo humilde será jogado em vala comum e ateado fogo, apenas mais  um holocausto mascarado de "mercado"</t>
+  </si>
+  <si>
+    <t>rt @samiabomfim: estão quebrando a petrobrás.
 https://t.co/osh7uhx6fj</t>
   </si>
   <si>
-    <t xml:space="preserve">não vou mais no mercado https://t.co/e5fo35fkwy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercado da bola: csa anuncia a contratação do meia andrigo, ex-inter, figueirense e sport - https://t.co/xfkgha8f6g https://t.co/7wdwizwje6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @marcosmairton: @carolinedaher na crise de 1998, eu tinha acabado de tomar posse no banco central.
+    <t>não vou mais no mercado https://t.co/e5fo35fkwy</t>
+  </si>
+  <si>
+    <t>mercado da bola: csa anuncia a contratação do meia andrigo, ex-inter, figueirense e sport - https://t.co/xfkgha8f6g https://t.co/7wdwizwje6</t>
+  </si>
+  <si>
+    <t>rt @marcosmairton: @carolinedaher na crise de 1998, eu tinha acabado de tomar posse no banco central.
 lembro que houve muita agitação por l…</t>
   </si>
   <si>
-    <t xml:space="preserve">@mfazzio40 @celianardi @o_antagonista então devemos incluir na suas contas o mercado informal,são 40 milhões sonegando impostos,e tem o mesmo direito que você, saúde grátis educação e segurança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to indo no mercado comprar molho de tomate, alguém vai querer algo??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@plynchado os sistemas de ti oferecidos aqui são horríveis, já levei ferro na clear 2 vezes.
+    <t>@mfazzio40 @celianardi @o_antagonista então devemos incluir na suas contas o mercado informal,são 40 milhões sonegando impostos,e tem o mesmo direito que você, saúde grátis educação e segurança</t>
+  </si>
+  <si>
+    <t>to indo no mercado comprar molho de tomate, alguém vai querer algo??</t>
+  </si>
+  <si>
+    <t>@plynchado os sistemas de ti oferecidos aqui são horríveis, já levei ferro na clear 2 vezes.
 boa sorte amigo, agora é só esperar o mercado andar pra frente novamente.
 abraço</t>
   </si>
   <si>
-    <t xml:space="preserve">a próxima vez que eu vir nesse mercado e esse cara piscar pra mim, vou dar uma voadora nele..rançoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audi rs6 avant – preço de mercado acima dos 100.000€! https://t.co/d5bs4rkxqp https://t.co/jgnxtzcwek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @mercadobitcoin: 😱 está assustado com as turbulências do mercado? 
+    <t>a próxima vez que eu vir nesse mercado e esse cara piscar pra mim, vou dar uma voadora nele..rançoo</t>
+  </si>
+  <si>
+    <t>audi rs6 avant – preço de mercado acima dos 100.000€! https://t.co/d5bs4rkxqp https://t.co/jgnxtzcwek</t>
+  </si>
+  <si>
+    <t>rt @mercadobitcoin: 😱 está assustado com as turbulências do mercado? 
 em primeiro lugar, take it easy.  😊
 nós selecionamos as principais i…</t>
   </si>
   <si>
-    <t xml:space="preserve">gentelkkkmmk voltei do mercado agora e os portugueses estão esvaziando as prateleiras de alcool gel e de alimentos nao perecíveis a apocalipse chegou ja reestoquei minha geladeira pronta pra ficar 2 semanas em casa https://t.co/kn6edlidzc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vou ter que ir no mercado sozinha 🤦🏽‍♀️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@abcmachado tem q ver se o mercado vai achar suficiente ou mesmo eficaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@tesoureiros esse aí entende do mercado de petróleo, igual ao pai entende de política.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model y na cor vermelha virou motivo de comemoração e fez equipe ganhar parabéns do ceo! https://t.co/ledzil4fkj #tecmundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@neotupi @igordevasconce6 @adssmoreira @mmrocha6 @portela_beth @na_telia o crescimento foi baseado em somente na alta de commodities. todo o mercado mundial teve crescimento gigante no pib nesse período. mas houvr sim, gastos extraordinários e injeção de dinheiro, tanto que estamos com a dívida gigante até hoje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @tec_mundo: model y na cor vermelha virou motivo de comemoração e fez equipe ganhar parabéns do ceo! https://t.co/ledzil4fkj #tecmundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu paguei $6 no kg de limão. pra esquecer no mercado 🤦‍♂️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @ibrahimfacuri: isso já aconteceu parecido no passado recente.
+    <t>gentelkkkmmk voltei do mercado agora e os portugueses estão esvaziando as prateleiras de alcool gel e de alimentos nao perecíveis a apocalipse chegou ja reestoquei minha geladeira pronta pra ficar 2 semanas em casa https://t.co/kn6edlidzc</t>
+  </si>
+  <si>
+    <t>vou ter que ir no mercado sozinha 🤦🏽‍♀️</t>
+  </si>
+  <si>
+    <t>@abcmachado tem q ver se o mercado vai achar suficiente ou mesmo eficaz</t>
+  </si>
+  <si>
+    <t>@tesoureiros esse aí entende do mercado de petróleo, igual ao pai entende de política.</t>
+  </si>
+  <si>
+    <t>model y na cor vermelha virou motivo de comemoração e fez equipe ganhar parabéns do ceo! https://t.co/ledzil4fkj #tecmundo</t>
+  </si>
+  <si>
+    <t>@neotupi @igordevasconce6 @adssmoreira @mmrocha6 @portela_beth @na_telia o crescimento foi baseado em somente na alta de commodities. todo o mercado mundial teve crescimento gigante no pib nesse período. mas houvr sim, gastos extraordinários e injeção de dinheiro, tanto que estamos com a dívida gigante até hoje</t>
+  </si>
+  <si>
+    <t>rt @tec_mundo: model y na cor vermelha virou motivo de comemoração e fez equipe ganhar parabéns do ceo! https://t.co/ledzil4fkj #tecmundo</t>
+  </si>
+  <si>
+    <t>eu paguei $6 no kg de limão. pra esquecer no mercado 🤦‍♂️</t>
+  </si>
+  <si>
+    <t>rt @ibrahimfacuri: isso já aconteceu parecido no passado recente.
 o embate do preço veio mais para tentar minar o “shale gas” dos eua do q…</t>
   </si>
   <si>
-    <t xml:space="preserve">hehehe! vai cair o preço das mãos no mercado. https://t.co/qmuwoe7aml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @lxcarvalho: existem pessoas sendo demitidas ou não sendo contratadas por serem gordas. se a gente tem um problema de mercado de trabalh…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vim no mercado, só iria levar um queijo e pão, já está eu atrás do carrinho com a dona flor 🤦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o mercado brasileiro acompanha a recuperação global. durante a manhã, o ibovespa, que é o principal índice da bolsa, chegou a registrar alta de 6%: https://t.co/9znoeg96yb #jh #jornalhoje https://t.co/3ccd4njbeb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paciência pra garotas mimadas, lá no mercado vai cada tipinho de garota metida que só não mando à merda porque minhas contas são mais importantes 🥰🥳🥰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@jorgelobisomen @pedrocerize @hbredda @jlbraga opa, como que faz isso ? vou ficar rico sabendo quais serão as oscilações do mercado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por hoje é só, criptolovers! curtiu a thread? então, fique ligado aqui no nosso twitter e acompanhe diariamente nossos conteúdos e notícias do mercado financeiro.  😘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“o mercado nunca teve tanto dinheiro para startups”, disse paulo veras, fundador da 99, atualmente unicórnio brasileiro. os investimentos em startups em 2019 atingiram a marca de u$859 milhões. 
+    <t>hehehe! vai cair o preço das mãos no mercado. https://t.co/qmuwoe7aml</t>
+  </si>
+  <si>
+    <t>rt @lxcarvalho: existem pessoas sendo demitidas ou não sendo contratadas por serem gordas. se a gente tem um problema de mercado de trabalh…</t>
+  </si>
+  <si>
+    <t>vim no mercado, só iria levar um queijo e pão, já está eu atrás do carrinho com a dona flor 🤦</t>
+  </si>
+  <si>
+    <t>o mercado brasileiro acompanha a recuperação global. durante a manhã, o ibovespa, que é o principal índice da bolsa, chegou a registrar alta de 6%: https://t.co/9znoeg96yb #jh #jornalhoje https://t.co/3ccd4njbeb</t>
+  </si>
+  <si>
+    <t>paciência pra garotas mimadas, lá no mercado vai cada tipinho de garota metida que só não mando à merda porque minhas contas são mais importantes 🥰🥳🥰</t>
+  </si>
+  <si>
+    <t>@jorgelobisomen @pedrocerize @hbredda @jlbraga opa, como que faz isso ? vou ficar rico sabendo quais serão as oscilações do mercado.</t>
+  </si>
+  <si>
+    <t>por hoje é só, criptolovers! curtiu a thread? então, fique ligado aqui no nosso twitter e acompanhe diariamente nossos conteúdos e notícias do mercado financeiro.  😘</t>
+  </si>
+  <si>
+    <t>“o mercado nunca teve tanto dinheiro para startups”, disse paulo veras, fundador da 99, atualmente unicórnio brasileiro. os investimentos em startups em 2019 atingiram a marca de u$859 milhões. 
 #startup #mba #educaçaoadistancia  #investimentos #evolução #unicorniobrasileiro</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @canalmynews: o #ajustedecontas desta semana foi especial! @maraluquet recebeu a economista juliana inhasz e a jornalista maria cristina…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hbredda: 23. philip carret entendia q poderia cair junto com o mercado, e não iria fazer nada quanto a isso previamente. viktor sabia q…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3) caso ocorra o espalhamento, vamos ter que desacelerar nas fábricas e no comércio, e isso vai derrubar a bolsa. 
+    <t>rt @canalmynews: o #ajustedecontas desta semana foi especial! @maraluquet recebeu a economista juliana inhasz e a jornalista maria cristina…</t>
+  </si>
+  <si>
+    <t>rt @hbredda: 23. philip carret entendia q poderia cair junto com o mercado, e não iria fazer nada quanto a isso previamente. viktor sabia q…</t>
+  </si>
+  <si>
+    <t>3) caso ocorra o espalhamento, vamos ter que desacelerar nas fábricas e no comércio, e isso vai derrubar a bolsa. 
 4) é uma situação complexa, não dá para investir agora.
 5) vou permanecer fora do mercado por mais tempo.</t>
   </si>
   <si>
-    <t xml:space="preserve">@jkjiminssi mo ja olhou no mercado livre?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@slowdisc0 @eleutheromoon radfen não aceita trans como mulher e tem tendência mais coletivista. libfen aceita tdx lgtbq+ da forma como cada um se vê, e é mais liberal no sentido de individualidade. a rad vai questionar todos os padrões e a lib vai criar outros, que agradam o mercado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdd de dançar no mercado com ele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @lorannii: alguém vai no mercado pra mim e faz as minhas compras e deixa aqui em casa pfv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @senadorhumberto: a bolsa na pior queda do século, o dólar no maior valor nominal histórico, a petrobras com perda de r$ 75 bilhões em s…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hoc111: dois estados (rússia e arábia saudita) criam uma guerra de preços artificial no mercado de petróleo e junto com uma pandemia gl…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quase 3h pra ir no mercado, andar no sol com sacola, cozinhar o almoço, pra ser derrotado na louça......... https://t.co/fptmxguw2c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pessoal do bbb comendo açaí e eu quase indo no mercado comprar tb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonhei com o renzo e o helder do nada a gente ia tomar banho num rio e dps a gente ia almoçar passava num mercado e a raquel tava la e ele começava a falar p ela q eu só era alguem q perdeu alguem e eu ficava we dont need that rn e ia pra outro canto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se aprovado fosse, faltaria próteses no mercado! https://t.co/6tcybb2jzx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @patocorporation: arábia saudita acaba d anunciar q vai aumentar a produção de petróleo e a rússia respondeu q tb tem capacidade p ampli…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@_sun_flowr_ @rfymelissa @manodavin @peterpaum @eversincz @pedromleao @bangtansbabyv @jeonwonwoo69 @ivannescaa @1luckes @ldrumine1975 ai, gente, uma vez fiz birra no mercado, minha mãe deu um tapa na minha mão, nunca mais fiz na minha vida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hbredda: 17. existem diversas formas de vc se criar valor pra vc no mercado. no caso so philip carret, já escrevi por aqui. só de curio…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🕵🏾‍♂️abin🍌🐄 economia em 4 atos
+    <t>@jkjiminssi mo ja olhou no mercado livre?</t>
+  </si>
+  <si>
+    <t>@slowdisc0 @eleutheromoon radfen não aceita trans como mulher e tem tendência mais coletivista. libfen aceita tdx lgtbq+ da forma como cada um se vê, e é mais liberal no sentido de individualidade. a rad vai questionar todos os padrões e a lib vai criar outros, que agradam o mercado.</t>
+  </si>
+  <si>
+    <t>sdd de dançar no mercado com ele</t>
+  </si>
+  <si>
+    <t>rt @lorannii: alguém vai no mercado pra mim e faz as minhas compras e deixa aqui em casa pfv</t>
+  </si>
+  <si>
+    <t>rt @senadorhumberto: a bolsa na pior queda do século, o dólar no maior valor nominal histórico, a petrobras com perda de r$ 75 bilhões em s…</t>
+  </si>
+  <si>
+    <t>rt @hoc111: dois estados (rússia e arábia saudita) criam uma guerra de preços artificial no mercado de petróleo e junto com uma pandemia gl…</t>
+  </si>
+  <si>
+    <t>quase 3h pra ir no mercado, andar no sol com sacola, cozinhar o almoço, pra ser derrotado na louça......... https://t.co/fptmxguw2c</t>
+  </si>
+  <si>
+    <t>pessoal do bbb comendo açaí e eu quase indo no mercado comprar tb</t>
+  </si>
+  <si>
+    <t>sonhei com o renzo e o helder do nada a gente ia tomar banho num rio e dps a gente ia almoçar passava num mercado e a raquel tava la e ele começava a falar p ela q eu só era alguem q perdeu alguem e eu ficava we dont need that rn e ia pra outro canto</t>
+  </si>
+  <si>
+    <t>se aprovado fosse, faltaria próteses no mercado! https://t.co/6tcybb2jzx</t>
+  </si>
+  <si>
+    <t>rt @patocorporation: arábia saudita acaba d anunciar q vai aumentar a produção de petróleo e a rússia respondeu q tb tem capacidade p ampli…</t>
+  </si>
+  <si>
+    <t>@_sun_flowr_ @rfymelissa @manodavin @peterpaum @eversincz @pedromleao @bangtansbabyv @jeonwonwoo69 @ivannescaa @1luckes @ldrumine1975 ai, gente, uma vez fiz birra no mercado, minha mãe deu um tapa na minha mão, nunca mais fiz na minha vida</t>
+  </si>
+  <si>
+    <t>rt @hbredda: 17. existem diversas formas de vc se criar valor pra vc no mercado. no caso so philip carret, já escrevi por aqui. só de curio…</t>
+  </si>
+  <si>
+    <t>🕵🏾‍♂️abin🍌🐄 economia em 4 atos
 1. com o pibinho do jegues;
 2. se o bozo não fosse tão, mas tão burro, ele escutaria o mercado;
 3. me colocaria no ministério e eu traria um pibão;
@@ -748,181 +753,181 @@
 jegues, tua batata ta assando. https://t.co/ny65q4lxvb</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @deciolimapt: quem vai pra casa  logo? guedes ou regina? se depender da mídia corporativa, como o guedes representa o mercado, quem vai…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @doeumlivro: você acha que cursos de graduação na modalidade ead preparam bem para o mercado de trabalho?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@samflach mercado livre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patríck fala p eu ir no mercado e leva o cartão p trabalho👍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 paciência pra garotas mimadas, lá no mercado vai cada tipinho de garota metida que só não mando à merda porque minhas contas são mais importantes 🥰🥳🥰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e vamos de ficar perdida no mercado central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fui comprar um goró no mercado e a japa entro em choque e eu sem entender nada fui sair fora, qm disse q ela deixou? seguro e ligo ps cana ai foi só enquadro do japa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">só usa ele no time pq foi a unica opcao ok do swaps.
+    <t>rt @deciolimapt: quem vai pra casa  logo? guedes ou regina? se depender da mídia corporativa, como o guedes representa o mercado, quem vai…</t>
+  </si>
+  <si>
+    <t>rt @doeumlivro: você acha que cursos de graduação na modalidade ead preparam bem para o mercado de trabalho?</t>
+  </si>
+  <si>
+    <t>@samflach mercado livre</t>
+  </si>
+  <si>
+    <t>patríck fala p eu ir no mercado e leva o cartão p trabalho👍</t>
+  </si>
+  <si>
+    <t>0 paciência pra garotas mimadas, lá no mercado vai cada tipinho de garota metida que só não mando à merda porque minhas contas são mais importantes 🥰🥳🥰</t>
+  </si>
+  <si>
+    <t>e vamos de ficar perdida no mercado central</t>
+  </si>
+  <si>
+    <t>fui comprar um goró no mercado e a japa entro em choque e eu sem entender nada fui sair fora, qm disse q ela deixou? seguro e ligo ps cana ai foi só enquadro do japa</t>
+  </si>
+  <si>
+    <t>só usa ele no time pq foi a unica opcao ok do swaps.
 nao to falando que ele é ruim, mas pelo preço de mercado dele vc consegue coisa melhor, se tivesse qualquer outra opcao de ataque legal vc nao escolheria o essien https://t.co/6vn2tvmzyp</t>
   </si>
   <si>
-    <t xml:space="preserve">@noahpinion excesso de liquidez.
+    <t>@noahpinion excesso de liquidez.
 a china beneficiou - mercado financeiro - com situação coronavirus, "dando uma lição" europa e eua.
 estratégias!</t>
   </si>
   <si>
-    <t xml:space="preserve">@ysscgl eu arrisco dizer q ir no mercado pra realmente fazer compras é pior do q a morte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fui no mercado, to fazendo a faxina e almoço... kd a parte boa de morar sozinho q vcs falam? 💤💤💤💤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@fabiopf08fabio @christian_gpbr maia podiria corrigir: 
+    <t>@ysscgl eu arrisco dizer q ir no mercado pra realmente fazer compras é pior do q a morte</t>
+  </si>
+  <si>
+    <t>fui no mercado, to fazendo a faxina e almoço... kd a parte boa de morar sozinho q vcs falam? 💤💤💤💤</t>
+  </si>
+  <si>
+    <t>@fabiopf08fabio @christian_gpbr maia podiria corrigir: 
 -- me descupe, na verdade quem prometeu foi o 'mercado', por meio dos seus analistas econômicos.</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @luizamifer: caixa do mercado: tens mais de 18?
+    <t>rt @luizamifer: caixa do mercado: tens mais de 18?
 eu: óbvio moça 
 ela: quero ver o documento em mãos 
 eu:</t>
   </si>
   <si>
-    <t xml:space="preserve">que preguiça de ir no mercado me estressar com os preços</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @obrasildofutur1: 🇧🇷 o presidente-executivo da #heineken no brasil declarou:
+    <t>que preguiça de ir no mercado me estressar com os preços</t>
+  </si>
+  <si>
+    <t>rt @obrasildofutur1: 🇧🇷 o presidente-executivo da #heineken no brasil declarou:
 "estamos antecipando em um ano todos os investimentos de n…</t>
   </si>
   <si>
-    <t xml:space="preserve">bolsonaro para uma plateia de empresários brasileiros em miami sobre o caos no mercado financeiro na véspera:
+    <t>bolsonaro para uma plateia de empresários brasileiros em miami sobre o caos no mercado financeiro na véspera:
 - o coronavírus não é isso tudo
 - muito do que se fala sobre crise é fantasia
 - é melhor o preço do petróleo cair do que subir
 https://t.co/ir5qvzws04</t>
   </si>
   <si>
-    <t xml:space="preserve">meu pequeno momento de vitória do dia foi comer uma marmita de estrogonothing que peguei no mercado, se sentir satisfeito e ter investido apenas r$ 11 nessa refeição, dadas as condições atuais e não ideais de pressão e temperatura dos últimos acontecimentos globais.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @sf2invest: parece o mercado https://t.co/ffd7iycpqb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tecnologia: como .. https://t.co/3jjlocjuqw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @folha: banco quer pobre sem educação financeira para cobrar juro no cartão, diz nath finanças https://t.co/9z1auiu1px</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entrei no mercado, peguei o carrinho que faz mais barulho kk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@koticho amigo vc enalteceu biscoito tipo waffle murcho com pasta de açúcar e gordura hidrogenada isso não é o melhor que o mercado tem pra oferecer nem de longe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mulheres à frente do mercado de serigrafia, sign e têxtil https://t.co/z3wavyi6jn https://t.co/yxui0potkg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@caraigld @botukap sou de god, quero comer sanduíche de mortadela no mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@belowtheport em defesa do estado de sp, eu fui no pão de açúcar q é o mercado mais caro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ferferreira99 vou e te dá um bolo do mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @oskarsays: não temos a opinião do presidente jair bolsonaro sobre: 
+    <t>meu pequeno momento de vitória do dia foi comer uma marmita de estrogonothing que peguei no mercado, se sentir satisfeito e ter investido apenas r$ 11 nessa refeição, dadas as condições atuais e não ideais de pressão e temperatura dos últimos acontecimentos globais.</t>
+  </si>
+  <si>
+    <t>rt @sf2invest: parece o mercado https://t.co/ffd7iycpqb</t>
+  </si>
+  <si>
+    <t>tecnologia: como .. https://t.co/3jjlocjuqw</t>
+  </si>
+  <si>
+    <t>rt @folha: banco quer pobre sem educação financeira para cobrar juro no cartão, diz nath finanças https://t.co/9z1auiu1px</t>
+  </si>
+  <si>
+    <t>entrei no mercado, peguei o carrinho que faz mais barulho kk</t>
+  </si>
+  <si>
+    <t>@koticho amigo vc enalteceu biscoito tipo waffle murcho com pasta de açúcar e gordura hidrogenada isso não é o melhor que o mercado tem pra oferecer nem de longe.</t>
+  </si>
+  <si>
+    <t>mulheres à frente do mercado de serigrafia, sign e têxtil https://t.co/z3wavyi6jn https://t.co/yxui0potkg</t>
+  </si>
+  <si>
+    <t>@caraigld @botukap sou de god, quero comer sanduíche de mortadela no mercado</t>
+  </si>
+  <si>
+    <t>@belowtheport em defesa do estado de sp, eu fui no pão de açúcar q é o mercado mais caro</t>
+  </si>
+  <si>
+    <t>@ferferreira99 vou e te dá um bolo do mercado</t>
+  </si>
+  <si>
+    <t>rt @oskarsays: não temos a opinião do presidente jair bolsonaro sobre: 
 pandemia, queda da bolsa, mercado alarmado,  pec emergencial. 
 já…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @portaldoholanda: mercados 
+    <t>rt @portaldoholanda: mercados 
 petróleo sobe e mercado futuro da ibovespa abre em alta https://t.co/wmfcytwku6 https://t.co/nz9igxvhhf</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @henriquefontana: não se enganem. o dólar alto não é p/ impedir as empregadas domésticas de irem à disney, como dá a entender a fala pre…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hbredda: 9. isso não quer dizer q o mercado não deveria cair. cai mesmo. medo faz cair. mas pelo menos entenda o que se passa. disrupçã…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@https_nati mas eu não entro no mercado e tem teu rosto pendurado no teto a cada 27x no ano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @hbredda: 19. no #fintwit há investidores, especuladores e participantes de mercado com as mais variadas influências. isso é normal. o q…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mulher prestes a dominar mercado https://t.co/gvdowdb5to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @marcofeliciano: que diferença! petezada enterrava dinheiro brasileiro em ditaduras socialistas. já pr @jairbolsonaro assina acordo mili…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @pedrocerize: sabe qual a coisa mais obvia que ninguem esta falando?
+    <t>rt @henriquefontana: não se enganem. o dólar alto não é p/ impedir as empregadas domésticas de irem à disney, como dá a entender a fala pre…</t>
+  </si>
+  <si>
+    <t>rt @hbredda: 9. isso não quer dizer q o mercado não deveria cair. cai mesmo. medo faz cair. mas pelo menos entenda o que se passa. disrupçã…</t>
+  </si>
+  <si>
+    <t>@https_nati mas eu não entro no mercado e tem teu rosto pendurado no teto a cada 27x no ano</t>
+  </si>
+  <si>
+    <t>rt @hbredda: 19. no #fintwit há investidores, especuladores e participantes de mercado com as mais variadas influências. isso é normal. o q…</t>
+  </si>
+  <si>
+    <t>mulher prestes a dominar mercado https://t.co/gvdowdb5to</t>
+  </si>
+  <si>
+    <t>rt @marcofeliciano: que diferença! petezada enterrava dinheiro brasileiro em ditaduras socialistas. já pr @jairbolsonaro assina acordo mili…</t>
+  </si>
+  <si>
+    <t>rt @pedrocerize: sabe qual a coisa mais obvia que ninguem esta falando?
 - que vamos ver uma onda de resgate de pessoas fisica de fundos de…</t>
   </si>
   <si>
-    <t xml:space="preserve">vontade de camarão quando sair da escola vou no mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@guilhermepsouto @olabocos a rand é pretensa filósofa mais rasa que um pires, que assim como as escolas austríacas e de chicago fizeram uma leitura completamente equivocada da obra de smith, principalmente riqueza das nações, utilizam recortes para defender o mercado como um crente defende deus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meus pais me xingaram pq fiz uma conta no mercado livre sem falar pra eles ???? sendo q eu tenho dinheiro pra comprar as coisas 
+    <t>vontade de camarão quando sair da escola vou no mercado</t>
+  </si>
+  <si>
+    <t>@guilhermepsouto @olabocos a rand é pretensa filósofa mais rasa que um pires, que assim como as escolas austríacas e de chicago fizeram uma leitura completamente equivocada da obra de smith, principalmente riqueza das nações, utilizam recortes para defender o mercado como um crente defende deus.</t>
+  </si>
+  <si>
+    <t>meus pais me xingaram pq fiz uma conta no mercado livre sem falar pra eles ???? sendo q eu tenho dinheiro pra comprar as coisas 
 laudo médico surtados</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @akafigliollo: eu quero q bolsa de valores e mercado financeiro vá pra casa do caralho! 
+    <t>rt @akafigliollo: eu quero q bolsa de valores e mercado financeiro vá pra casa do caralho! 
 do q adianta o mercado financeiro e a bolsa de…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @felipelopes021: fui no mercado hoje é já estão vendendo ovos de páscoa 😩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fui no mercado e o kinder ovo max estava 10€.
+    <t>rt @felipelopes021: fui no mercado hoje é já estão vendendo ovos de páscoa 😩</t>
+  </si>
+  <si>
+    <t>fui no mercado e o kinder ovo max estava 10€.
 vou explodir nessa pascoa de tanto comer kinder 😂</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @portalblackpink: [trans] “a yg entertainment afirmou que o blackpink está ganhando muita popularidade no mercado global, anualmente ela…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o investidor deve aproveitar as tecnologias para evitar baixas em momentos de maior incerteza. https://t.co/rfn1rufvig
+    <t>rt @portalblackpink: [trans] “a yg entertainment afirmou que o blackpink está ganhando muita popularidade no mercado global, anualmente ela…</t>
+  </si>
+  <si>
+    <t>o investidor deve aproveitar as tecnologias para evitar baixas em momentos de maior incerteza. https://t.co/rfn1rufvig
 #spacemoney #mercadofinanceiro #educacaofinanceira #bolsadevalores</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @paoladeorte: bolsonaro para uma plateia de empresários brasileiros em miami sobre o caos no mercado financeiro na véspera:
+    <t>rt @paoladeorte: bolsonaro para uma plateia de empresários brasileiros em miami sobre o caos no mercado financeiro na véspera:
 - o coronav…</t>
   </si>
   <si>
-    <t xml:space="preserve">vcs falam como se fossem os reis da certeza
+    <t>vcs falam como se fossem os reis da certeza
 olha que criar um vírus não é como meter um novo brinquedo no mercado ok? https://t.co/2mtgyiu2dk</t>
   </si>
   <si>
-    <t xml:space="preserve">me arrumar ir no carrefour fazer p q eu nao gosto, compras.. gente eu odeio mercado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">como por exemplo uma vez que estavamos chegando de carro do mercado lá pelas 11 da noite e vimos o pedro indo recepcionar um boy na porta do prédio (não tem porteiro aqui e não é possivel liberar a passagem das pessoas pelo interfone, a gente tem q descer abrir a porta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@fabiojbacha @carlosmaggioli @mateusorsini o corte dos primeiros 50 pontos na taxa de juros americana pelo fed costuma marcar o topo do ciclo econômico. se isso se confirmar, veremos uma deterioração crescente dos dados macro americanos. há vários sinais no horizonte.
+    <t>me arrumar ir no carrefour fazer p q eu nao gosto, compras.. gente eu odeio mercado.</t>
+  </si>
+  <si>
+    <t>como por exemplo uma vez que estavamos chegando de carro do mercado lá pelas 11 da noite e vimos o pedro indo recepcionar um boy na porta do prédio (não tem porteiro aqui e não é possivel liberar a passagem das pessoas pelo interfone, a gente tem q descer abrir a porta)</t>
+  </si>
+  <si>
+    <t>@fabiojbacha @carlosmaggioli @mateusorsini o corte dos primeiros 50 pontos na taxa de juros americana pelo fed costuma marcar o topo do ciclo econômico. se isso se confirmar, veremos uma deterioração crescente dos dados macro americanos. há vários sinais no horizonte.
 (via mercado em pauta)</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @folha: após black monday, bolsa sobe 3% e dólar cai 1,45%, a r$ 4,658
+    <t>rt @folha: após black monday, bolsa sobe 3% e dólar cai 1,45%, a r$ 4,658
 https://t.co/yn8jwemds6 https://t.co/ewjaryxh11</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @beatruta: a mão invisível do mercado podia fazer cafuné az veiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">achou! toma aê:
+    <t>rt @beatruta: a mão invisível do mercado podia fazer cafuné az veiz</t>
+  </si>
+  <si>
+    <t>achou! toma aê:
 cupom do ifood (app) =&amp;gt; ee6hz487al
 código rappi =&amp;gt; 82q38640354
 uber -&amp;gt; rjefc5
@@ -932,588 +937,588 @@
 ofertas da amazon, airbnb, recargapay, mercado livre e pagseguro visite o nosso perfil! https://t.co/ei8wllfxlu</t>
   </si>
   <si>
-    <t xml:space="preserve">‘você não estava aqui’ comove com fragilidades do mercado de trabalho » https://t.co/zjyzxubgwa https://t.co/dins5rck8j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mulheres à frente do mercado de serigrafia, sign e têxtil https://t.co/0g40rgrc8k https://t.co/zyjwwrxhp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@blogdosakamoto @pereirasdc sem mencionar que guedes e seus comparsas do mercado devem estar surfando nas informações privilegiadas. 
+    <t>‘você não estava aqui’ comove com fragilidades do mercado de trabalho » https://t.co/zjyzxubgwa https://t.co/dins5rck8j</t>
+  </si>
+  <si>
+    <t>mulheres à frente do mercado de serigrafia, sign e têxtil https://t.co/0g40rgrc8k https://t.co/zyjwwrxhp1</t>
+  </si>
+  <si>
+    <t>@blogdosakamoto @pereirasdc sem mencionar que guedes e seus comparsas do mercado devem estar surfando nas informações privilegiadas. 
 quanto guedes já queimou dos usd 380 bilhões,  que o pt criou de poupança ao país?</t>
   </si>
   <si>
-    <t xml:space="preserve">vou sair do trabalho e ir direto pro mercado, quem diria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"essa muié eu paguei na combosa quando eu trampava no mercado, so que ela é  casada, ai deu ruim... pro marido dela ne" kkkkkkk auge do meu dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fui no mercado não resisti e trouxe todinho. 
+    <t>vou sair do trabalho e ir direto pro mercado, quem diria</t>
+  </si>
+  <si>
+    <t>"essa muié eu paguei na combosa quando eu trampava no mercado, so que ela é  casada, ai deu ruim... pro marido dela ne" kkkkkkk auge do meu dia</t>
+  </si>
+  <si>
+    <t>fui no mercado não resisti e trouxe todinho. 
 gente, quanto tempo faz que não tomo um todinho, amo</t>
   </si>
   <si>
-    <t xml:space="preserve">@pablospyer petróleo, mercado... é pressão e blefe o tempo todo... té parece que cêis não conhecem?!?!?!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sou tão retardada que faço darem risada até na fila do mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acabou o papel higiênico no mercado aqui em lisboa. mano, é gripe, não diarreia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @tretisoficial: pré-jogo | #colxcap #libertadores #trétis
+    <t>@pablospyer petróleo, mercado... é pressão e blefe o tempo todo... té parece que cêis não conhecem?!?!?!!!</t>
+  </si>
+  <si>
+    <t>sou tão retardada que faço darem risada até na fila do mercado</t>
+  </si>
+  <si>
+    <t>acabou o papel higiênico no mercado aqui em lisboa. mano, é gripe, não diarreia.</t>
+  </si>
+  <si>
+    <t>rt @tretisoficial: pré-jogo | #colxcap #libertadores #trétis
 furacão está se movimentando no mercado da bola. segundo informações do @glob…</t>
   </si>
   <si>
-    <t xml:space="preserve">surto de coronavírus em portugal, e minhas únicas preocupações são:
+    <t>surto de coronavírus em portugal, e minhas únicas preocupações são:
 -tomara que a @mariliamreal não cancele o show
 -tomara que eu consiga achar comida no mercado, para estocar em casa</t>
   </si>
   <si>
-    <t xml:space="preserve">@joongvr primeiramente que o maior mercado musical do mundo é o us. além disso nós estamos em 2020, os números do bts digital e físico são astronômicos no mundo inteiro, não é atoa que o álbum deles é o álbum coreano mais bem vendido no mundo. resta vocês aceitarem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@uorrembife exato, 15 anos de mercado aqui, nunca vi isso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@lets_dex e vamos sacudir o mercado, tirar e colocar.
+    <t>@joongvr primeiramente que o maior mercado musical do mundo é o us. além disso nós estamos em 2020, os números do bts digital e físico são astronômicos no mundo inteiro, não é atoa que o álbum deles é o álbum coreano mais bem vendido no mundo. resta vocês aceitarem.</t>
+  </si>
+  <si>
+    <t>@uorrembife exato, 15 anos de mercado aqui, nunca vi isso.</t>
+  </si>
+  <si>
+    <t>@lets_dex e vamos sacudir o mercado, tirar e colocar.
 vamos aproveitar.
 não é todo dia que tem pandemia.</t>
   </si>
   <si>
-    <t xml:space="preserve">amg se vc entender mesmo o contexto, nos &amp;gt;digitais&amp;lt; eles são fortes demais e não é nem um pouco impossível eles superarem on no mercado asiático, mas vcs se ofendem com o pensamento do bts ter uma competição ai é foda https://t.co/hvskf3tlcp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maria tá um amor cara, tá crescendo rápido, daqui a pouco vamos lá levar ela no mercado pra comprarmos algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@muitoalemck @paulodemchuk @gigi_dutra @parox40 @midia_ancap @crgfalon @kaodeq @idkfa15 @rodrigo_mova @felipelanhi livre mercado fechado na itália https://t.co/yhnfepzkgm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @fefys_doliveira: isso é brincadeira, né? estamos novamente perdendo uma fatia do mercado para produto chinês 🤣🤣🤣🤣 https://t.co/qqwalep0…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@dafcamp @snapsnapping @ntanpedro @navinluvv kkkkkkkkkkkk a gente foi dar oi pra ele no mercado e tadinho ele ficou com vergonha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estou vendo muitos tuites nos termos "quero ver a faria lima em chamas", "e aí paulo guedes", "e o livre mercado hein? hahaha" etc.
+    <t>amg se vc entender mesmo o contexto, nos &amp;gt;digitais&amp;lt; eles são fortes demais e não é nem um pouco impossível eles superarem on no mercado asiático, mas vcs se ofendem com o pensamento do bts ter uma competição ai é foda https://t.co/hvskf3tlcp</t>
+  </si>
+  <si>
+    <t>maria tá um amor cara, tá crescendo rápido, daqui a pouco vamos lá levar ela no mercado pra comprarmos algo</t>
+  </si>
+  <si>
+    <t>@muitoalemck @paulodemchuk @gigi_dutra @parox40 @midia_ancap @crgfalon @kaodeq @idkfa15 @rodrigo_mova @felipelanhi livre mercado fechado na itália https://t.co/yhnfepzkgm</t>
+  </si>
+  <si>
+    <t>rt @fefys_doliveira: isso é brincadeira, né? estamos novamente perdendo uma fatia do mercado para produto chinês 🤣🤣🤣🤣 https://t.co/qqwalep0…</t>
+  </si>
+  <si>
+    <t>@dafcamp @snapsnapping @ntanpedro @navinluvv kkkkkkkkkkkk a gente foi dar oi pra ele no mercado e tadinho ele ficou com vergonha</t>
+  </si>
+  <si>
+    <t>estou vendo muitos tuites nos termos "quero ver a faria lima em chamas", "e aí paulo guedes", "e o livre mercado hein? hahaha" etc.
 todos manifestando uma alegria com o desespero dos engravatados, aproveitando o quentinho daquele schadenfreude gostoso.</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @haddad_fernando: única forma da economia se recuperar é se governo bolsonaro fizer investimento, diz lula https://t.co/wlfequr5pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">não temos a opinião do presidente jair bolsonaro sobre pandemia, queda da bolsa, mercado alarmado, pec emergencial-temos a opinião de jb sobre o abraço de draúzio v. com travesti condenada e cumprindo pena já a oito anos @moniquejbl @_michellymart @janaina_linda09 @loys_santana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@natan_amorim27 @lmjkannmel @daniielamoriim @isentoes2 (+) de 1 milhão de barris de petróleo por dia para 13 milhões de barris então conforme a teoria de oferta e demanda possui mais mercadoria no mercado daí o preço cai ficou pra 20 dólares . segundo motivo , além da pandemia q está rolando estamos com suspeita de golpe certo?! (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @gazetadopovo: guilherme fiuza: quem quer crise?
+    <t>rt @haddad_fernando: única forma da economia se recuperar é se governo bolsonaro fizer investimento, diz lula https://t.co/wlfequr5pi</t>
+  </si>
+  <si>
+    <t>não temos a opinião do presidente jair bolsonaro sobre pandemia, queda da bolsa, mercado alarmado, pec emergencial-temos a opinião de jb sobre o abraço de draúzio v. com travesti condenada e cumprindo pena já a oito anos @moniquejbl @_michellymart @janaina_linda09 @loys_santana</t>
+  </si>
+  <si>
+    <t>@natan_amorim27 @lmjkannmel @daniielamoriim @isentoes2 (+) de 1 milhão de barris de petróleo por dia para 13 milhões de barris então conforme a teoria de oferta e demanda possui mais mercadoria no mercado daí o preço cai ficou pra 20 dólares . segundo motivo , além da pandemia q está rolando estamos com suspeita de golpe certo?! (+)</t>
+  </si>
+  <si>
+    <t>rt @gazetadopovo: guilherme fiuza: quem quer crise?
 @gfiuza_oficial comenta o caos na bolsa internacional e a crise do petróleo. para fiuz…</t>
   </si>
   <si>
-    <t xml:space="preserve">assisti,ontem, gestores tentando animar o mercado numa apresentação  corretora .acho que não conseguiram. estavam abatidos .....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">então você pode até comemorar o pânico no mercado, mas saiba que o clássico do cancioneiro popular brasileiro continua 100% válido. https://t.co/lhclxowarl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @dudu: atenção 
+    <t>assisti,ontem, gestores tentando animar o mercado numa apresentação  corretora .acho que não conseguiram. estavam abatidos .....</t>
+  </si>
+  <si>
+    <t>então você pode até comemorar o pânico no mercado, mas saiba que o clássico do cancioneiro popular brasileiro continua 100% válido. https://t.co/lhclxowarl</t>
+  </si>
+  <si>
+    <t>rt @dudu: atenção 
 sua cidade está no epicentro do coronavirus e você precisará ficar um mês sem sair de casa
 o governo só permite que voc…</t>
   </si>
   <si>
-    <t xml:space="preserve">@abrahamweint essa doença veio pra mexer na economia do mundo.
+    <t>@abrahamweint essa doença veio pra mexer na economia do mundo.
 como uma espécie de gripe que mata menos que pneumonia pode m3xer no mercado mundial?</t>
   </si>
   <si>
-    <t xml:space="preserve">e eu que previ a crise e zerei todas as minhas posições no mercado financeiro no primeiro dia do corona vírus.. flls, ações, bitcoins, tesouro.. tudo! só essa semana já teve 2 circuit break na bolsa.. ibov sangrando.. 🔻🆘</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parte importante do atual movimento vem da incredulidade (e do medo consequente) que o mercado tem frente à evidente ineficácia do mesmo remédio prescrito desde 2008. liquidez abundante e estímulo monetário via juros. em função do quão sem precedente foi o ciclo (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 - ouro é uma otima proteção em momentos de estresse. a correlação inversa com o mercado de ações faz dele um ótimo instrumento de hedge (proteção). https://t.co/cfrsjxir0z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@brazilianequity mercado vive de aparências rsrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@rodrigofaria94 @berniesanders sua confiança no mercado ignora a enorme corrupção e destruição que a saúde privada, que coloca literalmente taxas de valor e faz pessoas pobres dependerem de uma caridade opcional, colocando um valor monetário na vida das pessoas, só mostra sua desumanidade. você reclama-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@tiagogreis provavelmente essas duas últimas quedas são só a ponta do iceberg. quem sabe como realmente funciona o mercado de renda variável, compra. quem não sabe e tem medo, vende. (compra desde que tenha bons fundamentos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @rabiscododon: "se você não está disposto a reagir com equanimidade a uma queda de 50% no preço de mercado duas ou três vezes por século…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor de mercado da stablecoin da @binance ultrapassa us$ 100 milhões https://t.co/tcsoxrwfpn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @onaredonda: em 2016, de jong valia 600 mil euros no mercado. hoje, em 2020, o mesmo vale 90 milhões de euros. https://t.co/jud5xu7atg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @estadao: &amp;gt;@estadaoeconomia bolsa brasileira fecha em queda de mais de 12% e dólar alcança r$ 4,72 em dia de caos no mercado https://t.c…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caralho a porra do mercado nao abre pqp quero ganha dinheiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor de mercado da stablecoin da binance ultrapassa us$ 100 milhões
+    <t>e eu que previ a crise e zerei todas as minhas posições no mercado financeiro no primeiro dia do corona vírus.. flls, ações, bitcoins, tesouro.. tudo! só essa semana já teve 2 circuit break na bolsa.. ibov sangrando.. 🔻🆘</t>
+  </si>
+  <si>
+    <t>parte importante do atual movimento vem da incredulidade (e do medo consequente) que o mercado tem frente à evidente ineficácia do mesmo remédio prescrito desde 2008. liquidez abundante e estímulo monetário via juros. em função do quão sem precedente foi o ciclo (+)</t>
+  </si>
+  <si>
+    <t>5 - ouro é uma otima proteção em momentos de estresse. a correlação inversa com o mercado de ações faz dele um ótimo instrumento de hedge (proteção). https://t.co/cfrsjxir0z</t>
+  </si>
+  <si>
+    <t>@brazilianequity mercado vive de aparências rsrs</t>
+  </si>
+  <si>
+    <t>@rodrigofaria94 @berniesanders sua confiança no mercado ignora a enorme corrupção e destruição que a saúde privada, que coloca literalmente taxas de valor e faz pessoas pobres dependerem de uma caridade opcional, colocando um valor monetário na vida das pessoas, só mostra sua desumanidade. você reclama-</t>
+  </si>
+  <si>
+    <t>@tiagogreis provavelmente essas duas últimas quedas são só a ponta do iceberg. quem sabe como realmente funciona o mercado de renda variável, compra. quem não sabe e tem medo, vende. (compra desde que tenha bons fundamentos)</t>
+  </si>
+  <si>
+    <t>rt @rabiscododon: "se você não está disposto a reagir com equanimidade a uma queda de 50% no preço de mercado duas ou três vezes por século…</t>
+  </si>
+  <si>
+    <t>valor de mercado da stablecoin da @binance ultrapassa us$ 100 milhões https://t.co/tcsoxrwfpn</t>
+  </si>
+  <si>
+    <t>rt @onaredonda: em 2016, de jong valia 600 mil euros no mercado. hoje, em 2020, o mesmo vale 90 milhões de euros. https://t.co/jud5xu7atg</t>
+  </si>
+  <si>
+    <t>rt @estadao: &amp;gt;@estadaoeconomia bolsa brasileira fecha em queda de mais de 12% e dólar alcança r$ 4,72 em dia de caos no mercado https://t.c…</t>
+  </si>
+  <si>
+    <t>caralho a porra do mercado nao abre pqp quero ganha dinheiro</t>
+  </si>
+  <si>
+    <t>valor de mercado da stablecoin da binance ultrapassa us$ 100 milhões
 https://t.co/h18w4agwei</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @danielpmerj: por @gfiuza_oficial 
+    <t>rt @danielpmerj: por @gfiuza_oficial 
 "a resistência democrápula tentou grudar a queda do mercado mundial na equipe econômica brasileira...…</t>
   </si>
   <si>
-    <t xml:space="preserve">parafraseando buffett: esse mercado tá começando a me deixar como um tarado no putêro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @edmundozen: petrobrás perde r$ 91 bilhões em valor de mercado em apenas 1 dia: 
+    <t>parafraseando buffett: esse mercado tá começando a me deixar como um tarado no putêro.</t>
+  </si>
+  <si>
+    <t>rt @edmundozen: petrobrás perde r$ 91 bilhões em valor de mercado em apenas 1 dia: 
 com queda no preço internacional do petróleo, estatal p…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @0vigilante0: o mercado nåo vai acabar,muito
+    <t>rt @0vigilante0: o mercado nåo vai acabar,muito
  menos o capitalismo
 o corona é apenas uma gripe.99% sairão ilesos como toda gripe.
 não e…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @homerogomes: para a matilha neoliberal no mercado e na mídia, pobre não tem direito à migalha do governo. mas como? são 200 milhões em…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoje eu vou no mercado sem falta😌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tô aqui no mercado e o moço que me atendeu é lindo dms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vida adulta é esse aplicativo de lista de mercado https://t.co/tyxgfwldea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pow vou ter q ir no mercado,tomara q não esteja cheio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aqui...nas relvas...na terrinha...as velhinhas já esgotaram cenas no mini mercado....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indo ao mercado. querem algo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @caiobtncrt: esse é o principal problema. ei e facebook vendem titica na cabeça do mercado e acham que uma transmissão em massa assim co…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quando chego no mercado e esqueço o que minha mãe pediu pra eu ir lá comprar https://t.co/hszagfqivq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@otourodeouro sempre, no mercado desde 1986, mais uma crise pra coleção.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ouvindo o fimzinho do episódio 25 do caso evandro no caixa do mercado, quem me olhasse perceberia o momento exato em que minha alma deixava meu corpo
+    <t>rt @homerogomes: para a matilha neoliberal no mercado e na mídia, pobre não tem direito à migalha do governo. mas como? são 200 milhões em…</t>
+  </si>
+  <si>
+    <t>hoje eu vou no mercado sem falta😌</t>
+  </si>
+  <si>
+    <t>tô aqui no mercado e o moço que me atendeu é lindo dms</t>
+  </si>
+  <si>
+    <t>vida adulta é esse aplicativo de lista de mercado https://t.co/tyxgfwldea</t>
+  </si>
+  <si>
+    <t>pow vou ter q ir no mercado,tomara q não esteja cheio</t>
+  </si>
+  <si>
+    <t>aqui...nas relvas...na terrinha...as velhinhas já esgotaram cenas no mini mercado....</t>
+  </si>
+  <si>
+    <t>indo ao mercado. querem algo?</t>
+  </si>
+  <si>
+    <t>rt @caiobtncrt: esse é o principal problema. ei e facebook vendem titica na cabeça do mercado e acham que uma transmissão em massa assim co…</t>
+  </si>
+  <si>
+    <t>quando chego no mercado e esqueço o que minha mãe pediu pra eu ir lá comprar https://t.co/hszagfqivq</t>
+  </si>
+  <si>
+    <t>@otourodeouro sempre, no mercado desde 1986, mais uma crise pra coleção.</t>
+  </si>
+  <si>
+    <t>ouvindo o fimzinho do episódio 25 do caso evandro no caixa do mercado, quem me olhasse perceberia o momento exato em que minha alma deixava meu corpo
 c a r a l h o</t>
   </si>
   <si>
-    <t xml:space="preserve">Teste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @folha: congresso impõe derrota ao governo e eleva gasto de benefício assistencial em r$ 20 bi por ano https://t.co/n2h9u28ujl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@xpinvestimentos respondeu sim é os emocionados e afetados psicologicamente com o mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gente, olha como o mercado é louco: esta semana começa com o pior dia das últimas décadas, um circuit break e tal. depois, tivemos o melhor dia das últimas décadas, tudo decolou! agora, neste exato momento, estamos em outro circuit break! que doideira! https://t.co/zvyv5t8hlw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @stephanevw: o maior mercado da cidade tá com prateleiras vazias 
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>rt @folha: congresso impõe derrota ao governo e eleva gasto de benefício assistencial em r$ 20 bi por ano https://t.co/n2h9u28ujl</t>
+  </si>
+  <si>
+    <t>@xpinvestimentos respondeu sim é os emocionados e afetados psicologicamente com o mercado</t>
+  </si>
+  <si>
+    <t>gente, olha como o mercado é louco: esta semana começa com o pior dia das últimas décadas, um circuit break e tal. depois, tivemos o melhor dia das últimas décadas, tudo decolou! agora, neste exato momento, estamos em outro circuit break! que doideira! https://t.co/zvyv5t8hlw</t>
+  </si>
+  <si>
+    <t>rt @stephanevw: o maior mercado da cidade tá com prateleiras vazias 
 a galera tá estocando comida por causa do coronavirus
 e vamos de apo…</t>
   </si>
   <si>
-    <t xml:space="preserve">compreenda sua caixa de ferramentas e use-a sem moderação. o caminho é longo mas altamente gratificante. não diminua o valor do esforço, muito menos o alheio. respeito é moeda de troca e o mercado não costuma perdoar quem não o respeita. por que seria fácil para você? (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@uol o governo dos banqueiros, rentistas, ou seja, dos verdadeiros sanguessugas. meu deus! eu fico impressionado como ainda tem lunático que apoia este desgoverno. prefere enriquecer os bancos, banqueiros e o "mercado" e fuder com a saúde, educação e assistência social.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.) os motores deste movimento de mercado são um reação exagerada ao #coronavirus combinado com o preço do petróleo (#oilwars). a extensão é mundial. além disso, para o brasil houve uma disparada no câmbio do dólar. é difícil prever eventos assim.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">congresso impõe derrota ao governo e eleva gasto de benefício assistencial em r$ 20 bi por ano https://t.co/jywvvmpw02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@rosa_riscala @victorytrader88 @sgoldenstein esta seria a medida de grande impacto, corretiva aos rumos que o bc deixou o mercado tomar. a manutenção seria menos impactante, mas com efeito semelhante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @leandroruschel: no mundo inteiro o mercado desaba. mas a culpa é do bolsonaro.
+    <t>compreenda sua caixa de ferramentas e use-a sem moderação. o caminho é longo mas altamente gratificante. não diminua o valor do esforço, muito menos o alheio. respeito é moeda de troca e o mercado não costuma perdoar quem não o respeita. por que seria fácil para você? (+)</t>
+  </si>
+  <si>
+    <t>@uol o governo dos banqueiros, rentistas, ou seja, dos verdadeiros sanguessugas. meu deus! eu fico impressionado como ainda tem lunático que apoia este desgoverno. prefere enriquecer os bancos, banqueiros e o "mercado" e fuder com a saúde, educação e assistência social.</t>
+  </si>
+  <si>
+    <t>8.) os motores deste movimento de mercado são um reação exagerada ao #coronavirus combinado com o preço do petróleo (#oilwars). a extensão é mundial. além disso, para o brasil houve uma disparada no câmbio do dólar. é difícil prever eventos assim.</t>
+  </si>
+  <si>
+    <t>congresso impõe derrota ao governo e eleva gasto de benefício assistencial em r$ 20 bi por ano https://t.co/jywvvmpw02</t>
+  </si>
+  <si>
+    <t>@rosa_riscala @victorytrader88 @sgoldenstein esta seria a medida de grande impacto, corretiva aos rumos que o bc deixou o mercado tomar. a manutenção seria menos impactante, mas com efeito semelhante</t>
+  </si>
+  <si>
+    <t>rt @leandroruschel: no mundo inteiro o mercado desaba. mas a culpa é do bolsonaro.
 como é poderoso esse presidente! consegue derrubar o me…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @dankawa2: amanhã será um dia importante para mapearmos o tamanho do estrago no mercado de fundos locais. muito zum, zum, zum. não para…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excelente dia para comer um cachorro quente sentados na calçada para conversar sobre o corona e a ‘crise’ no mercado financeiro......... 
+    <t>rt @dankawa2: amanhã será um dia importante para mapearmos o tamanho do estrago no mercado de fundos locais. muito zum, zum, zum. não para…</t>
+  </si>
+  <si>
+    <t>excelente dia para comer um cachorro quente sentados na calçada para conversar sobre o corona e a ‘crise’ no mercado financeiro......... 
 mas eu tô de dieta.</t>
   </si>
   <si>
-    <t xml:space="preserve">itaú unibanco diz que dois funcionários com coronavírus foram isolados https://t.co/yjflgwsxd9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @attuchleonardo: piada do dia no mercado financeiro https://t.co/k4xeglfuwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @folha_mercado: coronavírus pode causar danos como a crise de 2008, diz lagarde https://t.co/2lpoob76ei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @enioverri: a bolsa de valores voltou a cair, hoje, mais de 10%. as operações foram paralisadas. a pandemia de coronavírus é um dos moti…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mais um dia agitado no mercado financeiro... #ibovespa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@hamilto59052342 @oi1uiz verdade 
+    <t>itaú unibanco diz que dois funcionários com coronavírus foram isolados https://t.co/yjflgwsxd9</t>
+  </si>
+  <si>
+    <t>rt @attuchleonardo: piada do dia no mercado financeiro https://t.co/k4xeglfuwa</t>
+  </si>
+  <si>
+    <t>rt @folha_mercado: coronavírus pode causar danos como a crise de 2008, diz lagarde https://t.co/2lpoob76ei</t>
+  </si>
+  <si>
+    <t>rt @enioverri: a bolsa de valores voltou a cair, hoje, mais de 10%. as operações foram paralisadas. a pandemia de coronavírus é um dos moti…</t>
+  </si>
+  <si>
+    <t>mais um dia agitado no mercado financeiro... #ibovespa</t>
+  </si>
+  <si>
+    <t>@hamilto59052342 @oi1uiz verdade 
 tem muita gente que acha, que é o estado que tem que promover a economia, e não o próprio mercado.
 onde o estado coloca a mão, na maioria das vezes é pra pior.</t>
   </si>
   <si>
-    <t xml:space="preserve">@kabralcabral @brokerdif @arykame vixe... estão negociando o  koo no mercado financeiro?
+    <t>@kabralcabral @brokerdif @arykame vixe... estão negociando o  koo no mercado financeiro?
 hahahahahahaha</t>
   </si>
   <si>
-    <t xml:space="preserve">@dias1st @nocturnoz1 é tudo isso sim mano, ta afetando ate o mercado mundial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segundo a globonews isso foi um duro golpe no mercado e mais um problema para o governo.😂😂 https://t.co/i7ydetbnce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@jim_ibov espero que o bacen e o paulo guedes venham ao mercado, porque do contrario brasil vai quebrar ao quadrado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@tecomedina não caiu mais porque a b3 não deixou, não dava pra colocar ordens abaixo de 80540, livre mercado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">em 2016, de jong valia 600 mil euros no mercado. hoje, em 2020, o mesmo vale 90 milhões de euros. https://t.co/jud5xu7atg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e você só estará pronto para capturar se efetivamente souber o que está fazendo. o jogo do mercado é bruto. grandes gestores sofrem. profissionais com décadas de experiência lutam e estudam exaustivamente para conseguir resultados consistentes de forma sucessiva. (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @tarcisiogdf: enquanto o mundo desacelera, o 🇧🇷 tem nas mãos o maior e + sofisticado programa de concessões de infra. temos a oportunida…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @lucasmo09473510: @pedrocerize lembre-se sempre disso: quando você estiver confiante demais nas suas habilidades no mercado, você está m…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@dollarhumble vendendo put. lmt e cat (só opero no mercado americano). objetivo de ficar com o papel se continuar desabando o mercado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@sr_k_ se isso aconteceu, foi pq vc mereceu! é o nosso ídolo do mercado financeiro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @costafilhojoao: o mercado financeiro acha que a bolsa é tipo a tele sena e com menos pontos também ganha?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existe algum dark pool no brasil?
+    <t>@dias1st @nocturnoz1 é tudo isso sim mano, ta afetando ate o mercado mundial</t>
+  </si>
+  <si>
+    <t>segundo a globonews isso foi um duro golpe no mercado e mais um problema para o governo.😂😂 https://t.co/i7ydetbnce</t>
+  </si>
+  <si>
+    <t>@jim_ibov espero que o bacen e o paulo guedes venham ao mercado, porque do contrario brasil vai quebrar ao quadrado.</t>
+  </si>
+  <si>
+    <t>@tecomedina não caiu mais porque a b3 não deixou, não dava pra colocar ordens abaixo de 80540, livre mercado.</t>
+  </si>
+  <si>
+    <t>em 2016, de jong valia 600 mil euros no mercado. hoje, em 2020, o mesmo vale 90 milhões de euros. https://t.co/jud5xu7atg</t>
+  </si>
+  <si>
+    <t>e você só estará pronto para capturar se efetivamente souber o que está fazendo. o jogo do mercado é bruto. grandes gestores sofrem. profissionais com décadas de experiência lutam e estudam exaustivamente para conseguir resultados consistentes de forma sucessiva. (+)</t>
+  </si>
+  <si>
+    <t>rt @tarcisiogdf: enquanto o mundo desacelera, o 🇧🇷 tem nas mãos o maior e + sofisticado programa de concessões de infra. temos a oportunida…</t>
+  </si>
+  <si>
+    <t>rt @lucasmo09473510: @pedrocerize lembre-se sempre disso: quando você estiver confiante demais nas suas habilidades no mercado, você está m…</t>
+  </si>
+  <si>
+    <t>@dollarhumble vendendo put. lmt e cat (só opero no mercado americano). objetivo de ficar com o papel se continuar desabando o mercado.</t>
+  </si>
+  <si>
+    <t>@sr_k_ se isso aconteceu, foi pq vc mereceu! é o nosso ídolo do mercado financeiro.</t>
+  </si>
+  <si>
+    <t>rt @costafilhojoao: o mercado financeiro acha que a bolsa é tipo a tele sena e com menos pontos também ganha?</t>
+  </si>
+  <si>
+    <t>existe algum dark pool no brasil?
 não é possível. tem uma galera que todos os dias - desde o leilão de abertura - já começam fazendo milhões na direção certa do mercado.</t>
   </si>
   <si>
-    <t xml:space="preserve">status do dia: minhas finanças foram terrivelmente abaladas, só não perdi mais que os 91 bi em valor de mercado que a petrobrás  perdeu ontem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vender pequenas quantidades deles sem afetar sua cotação no mercado. 3. finalmente, às vezes, até mesmo certas ações ou mercadorias de muita negociabilidade. é claro que as vantagens de diminuir os custos de manter um encaixe devem ser confrontadas com certos [4952/9611]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@jandiarasboff @joseniakk @hbredda @ailtonbenedito @rodrigomaia sentimento de impotência,  até a tv dizendo  q o rodrigo do centrão votou p ajudar o governo,  tamanha piada. se arrebentar c tudo é ditador, e deixar rolar eles nos engole aos poucos até a cartada final. de td jeito a confiança no mercado ja éra , então tem q ir p cima mesmo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@georgmarques @marcelopintoba estas merdas que estes bostas de jornalistas falam é porque a porra do "mercado" que nada mais é do que os milionários. pagam o alto  salarios destes lixos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @juzao: eita, segundo circuit breaker da semana
+    <t>status do dia: minhas finanças foram terrivelmente abaladas, só não perdi mais que os 91 bi em valor de mercado que a petrobrás  perdeu ontem</t>
+  </si>
+  <si>
+    <t>vender pequenas quantidades deles sem afetar sua cotação no mercado. 3. finalmente, às vezes, até mesmo certas ações ou mercadorias de muita negociabilidade. é claro que as vantagens de diminuir os custos de manter um encaixe devem ser confrontadas com certos [4952/9611]</t>
+  </si>
+  <si>
+    <t>@jandiarasboff @joseniakk @hbredda @ailtonbenedito @rodrigomaia sentimento de impotência,  até a tv dizendo  q o rodrigo do centrão votou p ajudar o governo,  tamanha piada. se arrebentar c tudo é ditador, e deixar rolar eles nos engole aos poucos até a cartada final. de td jeito a confiança no mercado ja éra , então tem q ir p cima mesmo.</t>
+  </si>
+  <si>
+    <t>@georgmarques @marcelopintoba estas merdas que estes bostas de jornalistas falam é porque a porra do "mercado" que nada mais é do que os milionários. pagam o alto  salarios destes lixos.</t>
+  </si>
+  <si>
+    <t>rt @juzao: eita, segundo circuit breaker da semana
 vou te dizer que trabalhar no mercado financeiro tem sido peculiar</t>
   </si>
   <si>
-    <t xml:space="preserve">rio diz que choque no preço do petróleo é 'hecatombe' https://t.co/ciebqii4o3 energia barata é  bom para as indústria e geração de emprego, mas, esses párias,que vivem explorando o povo c/ impostos é o caos.o rj sempre viveu  assim nababescamente. nunca investiu nada, só  roubou.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @absent_purpose: @guienomorto o curioso caso do livre mercado onde o prejuízo é público e o lucro é privado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @erik_quarto: mercado financeiro acabando e nois tá como https://t.co/nzdbeash2n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@danielhrs perdem os especuladores do mercado financeiro! estamos falando de idosos e deficientes que receberam uma ajuda de custo do estado, mesmo tendo uma renda familiar de meio salário mínimo. 
+    <t>rio diz que choque no preço do petróleo é 'hecatombe' https://t.co/ciebqii4o3 energia barata é  bom para as indústria e geração de emprego, mas, esses párias,que vivem explorando o povo c/ impostos é o caos.o rj sempre viveu  assim nababescamente. nunca investiu nada, só  roubou.</t>
+  </si>
+  <si>
+    <t>rt @absent_purpose: @guienomorto o curioso caso do livre mercado onde o prejuízo é público e o lucro é privado.</t>
+  </si>
+  <si>
+    <t>rt @erik_quarto: mercado financeiro acabando e nois tá como https://t.co/nzdbeash2n</t>
+  </si>
+  <si>
+    <t>@danielhrs perdem os especuladores do mercado financeiro! estamos falando de idosos e deficientes que receberam uma ajuda de custo do estado, mesmo tendo uma renda familiar de meio salário mínimo. 
 agora experimente vc, @danielhrs, viver com menos de meio salário mínimo!</t>
   </si>
   <si>
-    <t xml:space="preserve">@liviolsoliveira @pboccato @staut_brito @ailtonbenedito ... produção após ataque sofrido em uma refinaria, e pq  rússia está recebendo petróleo como forma de pagamento da síria e venezuela e revendendo e lucrando. 
+    <t>@liviolsoliveira @pboccato @staut_brito @ailtonbenedito ... produção após ataque sofrido em uma refinaria, e pq  rússia está recebendo petróleo como forma de pagamento da síria e venezuela e revendendo e lucrando. 
 quem acompanha o mercado mais ou menos previa.</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @ddaengfc: kkkkkkkkkkkkkkkkkkk bigbang podia reinar, hoje é diferente porque o tempo deles já passou. o maior mercado do mundo é o us, e…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@jose_simao outro imoral igual a da pasta da justiça. os inteligentes percebem mais rápido, só que não conseguimos mudar esse quadro. guedes trabalha para um segmento só: o mercado financeiro, não para o brasil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">só os "liberais" pedindo pelo amor de d'us que o chapa branca salve o mercado!! liberal até a página 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@enricky_lost morte ao livre mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @nabucodonosor96: a mão invisível do mercado passando a mão na nossa bunda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"nós estamos testemunhando um novo colonialismo com a entrada do capital internacional no mercado da água brasileiro"
+    <t>rt @ddaengfc: kkkkkkkkkkkkkkkkkkk bigbang podia reinar, hoje é diferente porque o tempo deles já passou. o maior mercado do mundo é o us, e…</t>
+  </si>
+  <si>
+    <t>@jose_simao outro imoral igual a da pasta da justiça. os inteligentes percebem mais rápido, só que não conseguimos mudar esse quadro. guedes trabalha para um segmento só: o mercado financeiro, não para o brasil.</t>
+  </si>
+  <si>
+    <t>só os "liberais" pedindo pelo amor de d'us que o chapa branca salve o mercado!! liberal até a página 2</t>
+  </si>
+  <si>
+    <t>@enricky_lost morte ao livre mercado</t>
+  </si>
+  <si>
+    <t>rt @nabucodonosor96: a mão invisível do mercado passando a mão na nossa bunda</t>
+  </si>
+  <si>
+    <t>"nós estamos testemunhando um novo colonialismo com a entrada do capital internacional no mercado da água brasileiro"
 https://t.co/5dppffncqe</t>
   </si>
   <si>
-    <t xml:space="preserve">@11h08sky @exame ajuda mais do que os parente que vc liga perguntando se tá no mercado pedindo pra pegar um pacote pra vc e a pessoa não compra, baseado em fatos reais. (eu)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @rolealeatorio: a 5ª série no mercado de trabalho https://t.co/q5vn40dvvv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o susto q levei indo no mercado foi brincadeira, quase morri do coração mas foi mt engraçado kkkkkkkkklkkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @joanaa_picaa: quem tem este pensamento, está neste momento no conforto da sua cama e de barriga cheia. isto é uma realidade que tem q s…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @viasevedo: se tem uma classe que merece ser taxada de trouxa-mor é quem trabalha no mercado editorial/livreiro e votou nessa birosca qu…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minha mãe já deve tá arrependida de ter pedido pra mim e o meu irmão fazer a lista do que a gente quer do mercado :,)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">é justamente isso kpop tá longe de ser um dos principais géneros musicais quem expandiu esse mercado musicalmente de uma forma significante grande foi o bangtan se vc sair perguntando na rua dos eua oq é kpop eles vão falar o nome do bts isso se chama expandir pra fora da bolha https://t.co/qsky4fj8xv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@sunshityy "então eu andie pelas ruas á procura de um mercado"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@loointhezoo álcool gel por exemplo faz mais de semana que não tem no mercado 😰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fui no mercado hoje e vi um sushi, e me deu uma leve vontade de comer
+    <t>@11h08sky @exame ajuda mais do que os parente que vc liga perguntando se tá no mercado pedindo pra pegar um pacote pra vc e a pessoa não compra, baseado em fatos reais. (eu)</t>
+  </si>
+  <si>
+    <t>rt @rolealeatorio: a 5ª série no mercado de trabalho https://t.co/q5vn40dvvv</t>
+  </si>
+  <si>
+    <t>o susto q levei indo no mercado foi brincadeira, quase morri do coração mas foi mt engraçado kkkkkkkkklkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>rt @joanaa_picaa: quem tem este pensamento, está neste momento no conforto da sua cama e de barriga cheia. isto é uma realidade que tem q s…</t>
+  </si>
+  <si>
+    <t>rt @viasevedo: se tem uma classe que merece ser taxada de trouxa-mor é quem trabalha no mercado editorial/livreiro e votou nessa birosca qu…</t>
+  </si>
+  <si>
+    <t>minha mãe já deve tá arrependida de ter pedido pra mim e o meu irmão fazer a lista do que a gente quer do mercado :,)</t>
+  </si>
+  <si>
+    <t>é justamente isso kpop tá longe de ser um dos principais géneros musicais quem expandiu esse mercado musicalmente de uma forma significante grande foi o bangtan se vc sair perguntando na rua dos eua oq é kpop eles vão falar o nome do bts isso se chama expandir pra fora da bolha https://t.co/qsky4fj8xv</t>
+  </si>
+  <si>
+    <t>@sunshityy "então eu andie pelas ruas á procura de um mercado"</t>
+  </si>
+  <si>
+    <t>@loointhezoo álcool gel por exemplo faz mais de semana que não tem no mercado 😰</t>
+  </si>
+  <si>
+    <t>fui no mercado hoje e vi um sushi, e me deu uma leve vontade de comer
 será que eu to ficando louco?🤔</t>
   </si>
   <si>
-    <t xml:space="preserve">pior hora pra ir no mercado é 18:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">google recomenda home office a todos os funcionários da américa do norte - folha de s.paulo https://t.co/vm8cheshdc https://t.co/kj4gvccxwj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @renovamidia: o jornalista alexandre garcia declarou:
+    <t>pior hora pra ir no mercado é 18:30</t>
+  </si>
+  <si>
+    <t>google recomenda home office a todos os funcionários da américa do norte - folha de s.paulo https://t.co/vm8cheshdc https://t.co/kj4gvccxwj</t>
+  </si>
+  <si>
+    <t>rt @renovamidia: o jornalista alexandre garcia declarou:
 “vamos falar sobre o que acontece em #brasília, o que acontece no #brasil, sempre…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @minfraestrutura: durante o encontro, o ministro falou sobre a relicitação amigável do aeroporto de natal, nos termos da lei nº 13.448/2…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @raullsantiago: a guerra às drogas é um poderoso mercado do medo, que está distante da ideia de segurança, direitos e paz.
+    <t>rt @minfraestrutura: durante o encontro, o ministro falou sobre a relicitação amigável do aeroporto de natal, nos termos da lei nº 13.448/2…</t>
+  </si>
+  <si>
+    <t>rt @raullsantiago: a guerra às drogas é um poderoso mercado do medo, que está distante da ideia de segurança, direitos e paz.
 explora terri…</t>
   </si>
   <si>
-    <t xml:space="preserve">mercado livre tentando me vender uma coca cola de 2,5l por apenas 57,50$ https://t.co/jxiizg2d83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a vó foi no mercado e trouxe vários mimo, eu acho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @netmane: caros empreendedores de turismo local, isto não o fim do mundo, como vocês gostam de dizer... isto é o mercado a funcionar. se…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whopper furioso na loja: r$28,90
+    <t>mercado livre tentando me vender uma coca cola de 2,5l por apenas 57,50$ https://t.co/jxiizg2d83</t>
+  </si>
+  <si>
+    <t>a vó foi no mercado e trouxe vários mimo, eu acho</t>
+  </si>
+  <si>
+    <t>rt @netmane: caros empreendedores de turismo local, isto não o fim do mundo, como vocês gostam de dizer... isto é o mercado a funcionar. se…</t>
+  </si>
+  <si>
+    <t>whopper furioso na loja: r$28,90
 com o app do bk: r$21,90
 com o app e pagando com mercado pago: r$11,90</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @marpetrucelli: exatamente isso! imposição de derrota pelo simples prazer de vingança. são congressistas que atuam, descaradamente, para…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @radioitatiaia: ⚽️#atlético: alexandre mattos se desligou do reading, da inglaterra, na manhã desta quarta-feira. livre no mercado, dire…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu amo threads sobre o mercado musical brasileiro e vou defendê-las https://t.co/9ntebddvbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@folha @folha_mercado tanta torcida e deu em nada como sempre ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11/03/2020 18:36:37] pai❤️: to no mercado
+    <t>rt @marpetrucelli: exatamente isso! imposição de derrota pelo simples prazer de vingança. são congressistas que atuam, descaradamente, para…</t>
+  </si>
+  <si>
+    <t>rt @radioitatiaia: ⚽️#atlético: alexandre mattos se desligou do reading, da inglaterra, na manhã desta quarta-feira. livre no mercado, dire…</t>
+  </si>
+  <si>
+    <t>eu amo threads sobre o mercado musical brasileiro e vou defendê-las https://t.co/9ntebddvbo</t>
+  </si>
+  <si>
+    <t>@folha @folha_mercado tanta torcida e deu em nada como sempre ...</t>
+  </si>
+  <si>
+    <t>[11/03/2020 18:36:37] pai❤️: to no mercado
  [11/03/2020 18:36:50] pai❤️: qual você quer?
  [11/03/2020 18:36:51] pai❤️: fala logo 
 kkkkk o próprio pai conhece a filha pingaiada que tem</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @diarioonline: estudo aponta avanço na presença das mulheres no mercado de tecnologia https://t.co/o9xtdxlys0 https://t.co/mmhe7as02t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samsung come o rabo da apple em novo tik tok viral provando que o s20 tem a melhor câmera do mercado  https://t.co/rj076tpd8r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a tia já falou sobre essas imagens no #brasilurgente, na bolsa tinha coisas que ela comprou no mercado pra comer #cidadealerta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vir no mercado e querer passar por cima de todo mundo com o carrinho é inevitável</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onde tem mecenas, o pilantra do mercado brasileiro de futebol ta junto....que coisa impressionante! https://t.co/tcf3hy1wlu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu não posso ir ao mercado sem uma listinha. parece que perco o foco do que fui comprar, volto com um monte de besteira e nada do que eu deveria ter comprado 🤦🏻‍♀️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mano, a galera tá surtando real! eu fui no mercado comprar um sorvetinho e pão de queijo e passei 2h, repetindo, duas horas na fila pq a galera tava comprando comida pra estocar https://t.co/p1gq6f2f3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @_ihu: "nós estamos testemunhando um novo colonialismo com a entrada do capital internacional no mercado da água brasileiro"
+    <t>rt @diarioonline: estudo aponta avanço na presença das mulheres no mercado de tecnologia https://t.co/o9xtdxlys0 https://t.co/mmhe7as02t</t>
+  </si>
+  <si>
+    <t>samsung come o rabo da apple em novo tik tok viral provando que o s20 tem a melhor câmera do mercado  https://t.co/rj076tpd8r</t>
+  </si>
+  <si>
+    <t>a tia já falou sobre essas imagens no #brasilurgente, na bolsa tinha coisas que ela comprou no mercado pra comer #cidadealerta</t>
+  </si>
+  <si>
+    <t>vir no mercado e querer passar por cima de todo mundo com o carrinho é inevitável</t>
+  </si>
+  <si>
+    <t>onde tem mecenas, o pilantra do mercado brasileiro de futebol ta junto....que coisa impressionante! https://t.co/tcf3hy1wlu</t>
+  </si>
+  <si>
+    <t>eu não posso ir ao mercado sem uma listinha. parece que perco o foco do que fui comprar, volto com um monte de besteira e nada do que eu deveria ter comprado 🤦🏻‍♀️</t>
+  </si>
+  <si>
+    <t>mano, a galera tá surtando real! eu fui no mercado comprar um sorvetinho e pão de queijo e passei 2h, repetindo, duas horas na fila pq a galera tava comprando comida pra estocar https://t.co/p1gq6f2f3d</t>
+  </si>
+  <si>
+    <t>rt @_ihu: "nós estamos testemunhando um novo colonialismo com a entrada do capital internacional no mercado da água brasileiro"
 https://t.c…</t>
   </si>
   <si>
-    <t xml:space="preserve">prefeitura debate organização do mercado informal com ambulantes de lauro de freitas https://t.co/ylidlheldq https://t.co/3szdmgsm97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11/3 18:45] ester gonçalves: amigo fala alguma coisa que tu queria que existisse para comprar no mercado ou na farmácia ou em qualquer loja kkk por favor
+    <t>prefeitura debate organização do mercado informal com ambulantes de lauro de freitas https://t.co/ylidlheldq https://t.co/3szdmgsm97</t>
+  </si>
+  <si>
+    <t>[11/3 18:45] ester gonçalves: amigo fala alguma coisa que tu queria que existisse para comprar no mercado ou na farmácia ou em qualquer loja kkk por favor
 [11/3 18:45]melhor amigo❤: panqueca 
 [11/3 18:46] ester gonçalves: mais existe loko
 cada coisa</t>
   </si>
   <si>
-    <t xml:space="preserve">ia no mercado mais o bnt até agr não chegou né então tb hj não tem comida 🤷🏾‍♀️</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@felipeferraz27 não sei em relação a smoking, mas no mercado livre tem terno azul no precinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mano eu não acredito que tão fazendo estoque aqui das coisas e acabando com as coisas do mercado que ódio q eu sinto disso falta de civilidade do inferno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ótimo presente para o ano todo.
+    <t>ia no mercado mais o bnt até agr não chegou né então tb hj não tem comida 🤷🏾‍♀️</t>
+  </si>
+  <si>
+    <t>@felipeferraz27 não sei em relação a smoking, mas no mercado livre tem terno azul no precinho</t>
+  </si>
+  <si>
+    <t>mano eu não acredito que tão fazendo estoque aqui das coisas e acabando com as coisas do mercado que ódio q eu sinto disso falta de civilidade do inferno</t>
+  </si>
+  <si>
+    <t>ótimo presente para o ano todo.
 código para venda através do mercado livre #1391917844
 01 camisa adulto branca com mangas curtas do p ao eg 100% poliéster light tipo dry fit secagem rápida e não há necessidade de… https://t.co/qjail15j5q</t>
   </si>
   <si>
-    <t xml:space="preserve">estava dboa no mercado e do nada um cara para na minha frente fala oi e sai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faz 3 dias que meu pai tá no mercado, só quero ir pra casa, chorar no conforto da minha cama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acho que to de tpm pois mamãe me pediu p ir no mercado e eu to prestes a chorar pq nao quero ir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vou no mercado comprar as coisas pra fazer o fricassê</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o pessoal tem que parar e entender que o iphone já não é mais referência de mercado pra nada desde 2016... https://t.co/yo3lbxrybj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uma das coisas que eu mais amo eh fazer mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e cada dia que passa o mercado não está pra peixe... jeremias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu não briguei no mercado não né</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sempre quero que os pequenos empreendedores que não exploram ninguém obtenham êxito no mercado. agora quando vejo que o caro é bolsominion e tá se fodendo, eu não sou obrigada a ter empatia não meu irmão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fui mo mercado e já aproveitei pra comprar um salgado né kkkkkkkkkk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">para a matilha neoliberal no mercado e na mídia, pobre não tem direito à migalha do governo. mas como? são 200 milhões em 10 anos. bueno, essa mesma turma voraz do mercado não se constrange com a queima 45 bi de dólares para alimentar os lobos da especulação em apenas 2 meses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quem tem este pensamento, está neste momento no conforto da sua cama e de barriga cheia. isto é uma realidade que tem q ser encarada. há países em quarentena neste momento, pessoas que nem ao mercado podem ir, familiares doentes. n deixa de ser preoucupante só pq n vos atingiu https://t.co/khfuzkalwn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@mpu_po @rafaellacgarcia ah eu achei que era alguma novidade no mercado de bolo
+    <t>estava dboa no mercado e do nada um cara para na minha frente fala oi e sai</t>
+  </si>
+  <si>
+    <t>faz 3 dias que meu pai tá no mercado, só quero ir pra casa, chorar no conforto da minha cama</t>
+  </si>
+  <si>
+    <t>acho que to de tpm pois mamãe me pediu p ir no mercado e eu to prestes a chorar pq nao quero ir</t>
+  </si>
+  <si>
+    <t>vou no mercado comprar as coisas pra fazer o fricassê</t>
+  </si>
+  <si>
+    <t>o pessoal tem que parar e entender que o iphone já não é mais referência de mercado pra nada desde 2016... https://t.co/yo3lbxrybj</t>
+  </si>
+  <si>
+    <t>uma das coisas que eu mais amo eh fazer mercado</t>
+  </si>
+  <si>
+    <t>e cada dia que passa o mercado não está pra peixe... jeremias</t>
+  </si>
+  <si>
+    <t>eu não briguei no mercado não né</t>
+  </si>
+  <si>
+    <t>sempre quero que os pequenos empreendedores que não exploram ninguém obtenham êxito no mercado. agora quando vejo que o caro é bolsominion e tá se fodendo, eu não sou obrigada a ter empatia não meu irmão</t>
+  </si>
+  <si>
+    <t>fui mo mercado e já aproveitei pra comprar um salgado né kkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>para a matilha neoliberal no mercado e na mídia, pobre não tem direito à migalha do governo. mas como? são 200 milhões em 10 anos. bueno, essa mesma turma voraz do mercado não se constrange com a queima 45 bi de dólares para alimentar os lobos da especulação em apenas 2 meses</t>
+  </si>
+  <si>
+    <t>quem tem este pensamento, está neste momento no conforto da sua cama e de barriga cheia. isto é uma realidade que tem q ser encarada. há países em quarentena neste momento, pessoas que nem ao mercado podem ir, familiares doentes. n deixa de ser preoucupante só pq n vos atingiu https://t.co/khfuzkalwn</t>
+  </si>
+  <si>
+    <t>@mpu_po @rafaellacgarcia ah eu achei que era alguma novidade no mercado de bolo
 tipo quando apareceu o naked cake kkkkkkkkk</t>
   </si>
   <si>
-    <t xml:space="preserve">atenção 
+    <t>atenção 
 sua cidade está no epicentro do coronavirus e você precisará ficar um mês sem sair de casa
 o governo só permite que você pegue para esse mês 3 itens de necessidade básica no mercado. quais você escolhe? https://t.co/diiloq8jcy</t>
   </si>
   <si>
-    <t xml:space="preserve">há poucos dias, comentava com um jornalista que o [aparente] ímpeto reformista de parte do congresso não deve ser confundido com ortodoxia fiscal. melhor exemplo, impossível.
+    <t>há poucos dias, comentava com um jornalista que o [aparente] ímpeto reformista de parte do congresso não deve ser confundido com ortodoxia fiscal. melhor exemplo, impossível.
 https://t.co/cgw83rvua0</t>
   </si>
   <si>
-    <t xml:space="preserve">eu em 2010 após ir no mercado com 2 reais e voltando pra casa cheia de compras e 50 centavos de troco https://t.co/yeifyau8xv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @walkinglag: @beatrizsvelez um mercado com animais ilegais na china é um bocado diferente de um supermercado com controlo de qualidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefeitura debate organização do mercado informal com ambulantes de lauro de freitas https://t.co/no1q7eispe https://t.co/egttzyee5d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vou deixar pra ir ao mercado amanhã, tempo doido já tá virando de novo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@dexmacho tributos são regidos pela vontade de representantes e não pelo mercado. desperdício de dinheiro e gerador de pobreza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">é o apocalipse amigos 
+    <t>eu em 2010 após ir no mercado com 2 reais e voltando pra casa cheia de compras e 50 centavos de troco https://t.co/yeifyau8xv</t>
+  </si>
+  <si>
+    <t>rt @walkinglag: @beatrizsvelez um mercado com animais ilegais na china é um bocado diferente de um supermercado com controlo de qualidade</t>
+  </si>
+  <si>
+    <t>prefeitura debate organização do mercado informal com ambulantes de lauro de freitas https://t.co/no1q7eispe https://t.co/egttzyee5d</t>
+  </si>
+  <si>
+    <t>vou deixar pra ir ao mercado amanhã, tempo doido já tá virando de novo</t>
+  </si>
+  <si>
+    <t>@dexmacho tributos são regidos pela vontade de representantes e não pelo mercado. desperdício de dinheiro e gerador de pobreza.</t>
+  </si>
+  <si>
+    <t>é o apocalipse amigos 
 corram pro mercado</t>
   </si>
   <si>
-    <t xml:space="preserve">@maurocezar @youtube pergunto: ele tem mercado fora do brasil??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vê oq passei hj no mercado pela primeira vez, vê oq aconteceu e taça o fds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@patysoelo deve ser no centro rs, e devo conhecer a igreja de nazaré, teatro da paz.. um mercado famoso de ferro .. vai ser legal conhecer sua terra 😎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fui no mercado comprar cerveja p avó da maria, aí a moça do caixa veio toda debochada “amadinha você tem rg?” kkkkk aí foi muito bom tirar meu rg e deixar a mulher c cara de tacho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fui no mercado e notei que tava todo mundo me olhando estranho, cheguei em casa e quando olho eu tinha esquecido de tirar a máscara facial kkkkk parecia o hulk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na vida de casada, aprendi que: existem as compras do mês no mercado e em drogaria
+    <t>@maurocezar @youtube pergunto: ele tem mercado fora do brasil??</t>
+  </si>
+  <si>
+    <t>vê oq passei hj no mercado pela primeira vez, vê oq aconteceu e taça o fds</t>
+  </si>
+  <si>
+    <t>@patysoelo deve ser no centro rs, e devo conhecer a igreja de nazaré, teatro da paz.. um mercado famoso de ferro .. vai ser legal conhecer sua terra 😎</t>
+  </si>
+  <si>
+    <t>fui no mercado comprar cerveja p avó da maria, aí a moça do caixa veio toda debochada “amadinha você tem rg?” kkkkk aí foi muito bom tirar meu rg e deixar a mulher c cara de tacho</t>
+  </si>
+  <si>
+    <t>fui no mercado e notei que tava todo mundo me olhando estranho, cheguei em casa e quando olho eu tinha esquecido de tirar a máscara facial kkkkk parecia o hulk</t>
+  </si>
+  <si>
+    <t>na vida de casada, aprendi que: existem as compras do mês no mercado e em drogaria
 so hoje gastei quase 200 reais em remédios e coisas de higiene.
 pelo menos os absorventes e sabonetes estão em dia</t>
   </si>
   <si>
-    <t xml:space="preserve">quem não ajuda os outros a crescer nunca vai crescer. a pura verdade é essa. se uma certa pessoa acha q atrapalhando os outros vai se sair bem, eu sinto é pena. pena pela pessoa que ela se casou, pela vida q ela leva, pela ignorância q ela tem e pelo mercado ilusório q a mantém</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@dudu então troco tudo por chumbinho, sei que tem no mercado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hahahahah a mulher veio querer brigar comigo e não conseguia entender que eu tava falando que ser ator da globo não torna ninguém rico (no caso, o babu). pq a gente sabe que o mercado tá louco atrás de negro com o biotipo dele. foi lá e me bloqueou 🤷🏻‍♀️ #bbb20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@spencerq @mareaiitys @tulioduarte as bundas secas tbm são valorizadas no mercado. https://t.co/unrmg6mtmd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @jordanfarialima: o mais triste dessa história é que poucos ensinaram que isso poderia acontecer, cedo ou tarde aconteceria e 90% dos no…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minha mãe falo pro meu pai ir no mercado compra fruta ele compro banana melão 4 barras de chocolate 2 caixa de bis 1 pote de nutella e 2 caixinha daqueles  palitinho de chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">essa semana vou no mercado comprar aquele saco de copao pra levar na baphooo, eu fico comprando copo e perdendo, vou levar de plástico agora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vi a samile no mercado lind sem condissoes saudades demais soke medo da main dela vim mim bate falando ki eu tavo comprando corote i pão a isa rino mi chamando di besta 
+    <t>quem não ajuda os outros a crescer nunca vai crescer. a pura verdade é essa. se uma certa pessoa acha q atrapalhando os outros vai se sair bem, eu sinto é pena. pena pela pessoa que ela se casou, pela vida q ela leva, pela ignorância q ela tem e pelo mercado ilusório q a mantém</t>
+  </si>
+  <si>
+    <t>@dudu então troco tudo por chumbinho, sei que tem no mercado</t>
+  </si>
+  <si>
+    <t>hahahahah a mulher veio querer brigar comigo e não conseguia entender que eu tava falando que ser ator da globo não torna ninguém rico (no caso, o babu). pq a gente sabe que o mercado tá louco atrás de negro com o biotipo dele. foi lá e me bloqueou 🤷🏻‍♀️ #bbb20</t>
+  </si>
+  <si>
+    <t>@spencerq @mareaiitys @tulioduarte as bundas secas tbm são valorizadas no mercado. https://t.co/unrmg6mtmd</t>
+  </si>
+  <si>
+    <t>rt @jordanfarialima: o mais triste dessa história é que poucos ensinaram que isso poderia acontecer, cedo ou tarde aconteceria e 90% dos no…</t>
+  </si>
+  <si>
+    <t>minha mãe falo pro meu pai ir no mercado compra fruta ele compro banana melão 4 barras de chocolate 2 caixa de bis 1 pote de nutella e 2 caixinha daqueles  palitinho de chocolate</t>
+  </si>
+  <si>
+    <t>essa semana vou no mercado comprar aquele saco de copao pra levar na baphooo, eu fico comprando copo e perdendo, vou levar de plástico agora</t>
+  </si>
+  <si>
+    <t>vi a samile no mercado lind sem condissoes saudades demais soke medo da main dela vim mim bate falando ki eu tavo comprando corote i pão a isa rino mi chamando di besta 
 sdds apenss</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @danieljosebr: bolsas de todo o mundo estão em queda!
+    <t>rt @danieljosebr: bolsas de todo o mundo estão em queda!
 brasil: -7,6%
 eua: -4,8%
 canadá: -4,6%
@@ -1522,171 +1527,171 @@
 israel:…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @sergeta: recuos das bolsas de valores no último mês. olhando pelo covid-19: dos países que caíram pelo menos 20% o brasil é o único com…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e inundar o mercado com dinheiro (excesso de liquidez). as bolsas vao ter uma retomada histórica. vão subir como nunca antes vito. vai ter muita gente que comprar na baixa ganhando dinheiro como gente grande. e voce ai achando que nada é manipulado ne? +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aposto em cb amanhã das bolsas americanas e b3 pode até repicar mas não confio, acredito que tenha outro cb pra depois recuperar, boa noite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">última pandemia não houve fechamento de fronteiras, quarentena de países inteiros, paralisação de voos dos eua para outro continente, nem as bolsas caíram tanto. dessa vez o vírus é veloz e mandará 20% de quem pegar para a internação, dos quais 1/4 não voltam. #coronavirus https://t.co/zfrnq99p4f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depois do fechamento dos eua para vôos da europa, como vocês acham que vão abrir as bolsas amanhã? menos q 3 circuit breaks, pago o cachorro quente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas asiáticas têm forte queda após discurso de laranjo; índices futuros despencam
+    <t>rt @sergeta: recuos das bolsas de valores no último mês. olhando pelo covid-19: dos países que caíram pelo menos 20% o brasil é o único com…</t>
+  </si>
+  <si>
+    <t>e inundar o mercado com dinheiro (excesso de liquidez). as bolsas vao ter uma retomada histórica. vão subir como nunca antes vito. vai ter muita gente que comprar na baixa ganhando dinheiro como gente grande. e voce ai achando que nada é manipulado ne? +</t>
+  </si>
+  <si>
+    <t>aposto em cb amanhã das bolsas americanas e b3 pode até repicar mas não confio, acredito que tenha outro cb pra depois recuperar, boa noite</t>
+  </si>
+  <si>
+    <t>última pandemia não houve fechamento de fronteiras, quarentena de países inteiros, paralisação de voos dos eua para outro continente, nem as bolsas caíram tanto. dessa vez o vírus é veloz e mandará 20% de quem pegar para a internação, dos quais 1/4 não voltam. #coronavirus https://t.co/zfrnq99p4f</t>
+  </si>
+  <si>
+    <t>depois do fechamento dos eua para vôos da europa, como vocês acham que vão abrir as bolsas amanhã? menos q 3 circuit breaks, pago o cachorro quente.</t>
+  </si>
+  <si>
+    <t>bolsas asiáticas têm forte queda após discurso de laranjo; índices futuros despencam
 https://t.co/rosdd5uddb</t>
   </si>
   <si>
-    <t xml:space="preserve">o isolamento brasileiro, no entanto, gera algumas distorções na cultura. tem muita gente exagerando o peso do governo na crise atual. bolsas do mundo todo estão caindo. o brasil não é o centro do mundo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas da ásia com humores diferentes. japão caindo 4,92%. hong kong -3,81%. shanghai -1,34%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @llfmph: eu imaginei muito a lena segurando a sam numa daquelas bolsas que as madames levam seus cachorrinhos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nem sei como vou fazer pra trazer aquelas bolsas todas amanhã 😫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as bolsas de valores pelo mundo amanhã terão uma queda histórica.
+    <t>o isolamento brasileiro, no entanto, gera algumas distorções na cultura. tem muita gente exagerando o peso do governo na crise atual. bolsas do mundo todo estão caindo. o brasil não é o centro do mundo.</t>
+  </si>
+  <si>
+    <t>bolsas da ásia com humores diferentes. japão caindo 4,92%. hong kong -3,81%. shanghai -1,34%.</t>
+  </si>
+  <si>
+    <t>rt @llfmph: eu imaginei muito a lena segurando a sam numa daquelas bolsas que as madames levam seus cachorrinhos</t>
+  </si>
+  <si>
+    <t>nem sei como vou fazer pra trazer aquelas bolsas todas amanhã 😫</t>
+  </si>
+  <si>
+    <t>as bolsas de valores pelo mundo amanhã terão uma queda histórica.
 as dessa semana até agora não são nada.
 e, como sempre, já podemos apostar em quem terá uma queda recorde: a do brasil, de guedes e bolsonaro.
 dólar a r$ 4,90?</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @agmartins3: #j10
+    <t>rt @agmartins3: #j10
 os arautos das más notícias, querem dizer que as bolsas asiáticas são as que dão o rumo para as demais bolsas.
 avise…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @osvladpereira: augusto nunes: "crise entre arábia saudita e rússia derruba bolsas."
+    <t>rt @osvladpereira: augusto nunes: "crise entre arábia saudita e rússia derruba bolsas."
 mas para gleisi o culpado é o presidente bolsonaro…</t>
   </si>
   <si>
-    <t xml:space="preserve">bear market assinala a queda de 20% nas bolsas.
+    <t>bear market assinala a queda de 20% nas bolsas.
 o de 1929 demorou 36 pregões. 
 o de hoje, apenas 21...</t>
   </si>
   <si>
-    <t xml:space="preserve">dia começa, e no outro lado do mundo, bolsas seguem despencando: austrália - 7% e tóquio -4%. https://t.co/xwttvsoln4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os mercados não reagiram bem ao anúncio do presidente trump. principais índices futuros das bolsas de nova york (dow jones, s&amp;amp;p 500 e nasdaq) exibem queda de quase 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minha fé é tanta q to arrumando minhas bolsas pra ir pra casa de fabricio e coloquei o look e make reserva caso a gente ganhe o ingre pra ir na zoox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">durante e depois do pronunciamento de trump no salão oval, os índices futuros das bolsas de nova york aceleraram as perdas, assim como os contratos de petróleo. o dólar também passou a cair mais em relação ao iene, moeda considerada mais segura em tempos de crise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@capivaratrader vai sair... cb nas bolsas do mundo todo de uma vez só. kkkkk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @sakutaehy: oi gente, eu queria a atenção de vcs um oouquinho... minha mãe trabalha com artesanato e ela esta vendento varias coisas, bo…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">que imprensa chapa-branca, peloamordedeus! as bolsas caíram e o dólar subiu não foi por causa do coronavírus e da crise econômica mundial, mas porque o congresso derrubou um veto do bolsonaro. é de pasmar. botando lenha na fogueira marcada para 15.3.
+    <t>dia começa, e no outro lado do mundo, bolsas seguem despencando: austrália - 7% e tóquio -4%. https://t.co/xwttvsoln4</t>
+  </si>
+  <si>
+    <t>os mercados não reagiram bem ao anúncio do presidente trump. principais índices futuros das bolsas de nova york (dow jones, s&amp;amp;p 500 e nasdaq) exibem queda de quase 5%</t>
+  </si>
+  <si>
+    <t>minha fé é tanta q to arrumando minhas bolsas pra ir pra casa de fabricio e coloquei o look e make reserva caso a gente ganhe o ingre pra ir na zoox</t>
+  </si>
+  <si>
+    <t>durante e depois do pronunciamento de trump no salão oval, os índices futuros das bolsas de nova york aceleraram as perdas, assim como os contratos de petróleo. o dólar também passou a cair mais em relação ao iene, moeda considerada mais segura em tempos de crise</t>
+  </si>
+  <si>
+    <t>@capivaratrader vai sair... cb nas bolsas do mundo todo de uma vez só. kkkkk</t>
+  </si>
+  <si>
+    <t>rt @sakutaehy: oi gente, eu queria a atenção de vcs um oouquinho... minha mãe trabalha com artesanato e ela esta vendento varias coisas, bo…</t>
+  </si>
+  <si>
+    <t>que imprensa chapa-branca, peloamordedeus! as bolsas caíram e o dólar subiu não foi por causa do coronavírus e da crise econômica mundial, mas porque o congresso derrubou um veto do bolsonaro. é de pasmar. botando lenha na fogueira marcada para 15.3.
 https://t.co/z6yhhyzudq</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @ddsamorim23: @debora_d_diniz minha leitura é diferente: a crista negacionista arrogante dos fascistas inevitavelmente se dobra frente à…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@forastieri neste momento, bolsas asiáticas caindo 4%, em média, e nem tem o reflexo de fechar o espaço aéreo entre eua e europa continental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@paulosnarciso pelo oq eu entendi vc tá em 4 de 4 bolsas e significa que tem 3 pessoas na sua frente. e se levar tudo certinho a quarta vaga é sua.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a unb não tem água nos bebedouros, não tem papel higiênico, cortou bolsas, tem mosquito da dengue, etc, mas não ter 1 semana de aula por causa do coronavirus é o que vai atrapalhar o rendimento acadêmico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@giovann67526838 @anacamiran sim amiga kkkkkkkk umas 15 bolsas p 4 pessoas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@whindersson por isso q as bolsas no mundo todo despencaram.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a bolsas de valores irão cair é isso pode gerar a maior crise que o mundo vai ver, medo eu tenho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@marycognata @marconha77 pibid? programa institucional de bolsas de iniciação a docência? mds, eu fui bolsista e sou grandiosamente grato por esse programa...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amanha as bolsas estarao no modo marea turbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o problema não é a letalidade do vírus, mas o pânico em cadei que ele provoca. por acaso a gripe comum derruba as bolsas de valores do mundo? 🤷🏼‍♀️ https://t.co/bsuhdhvr0f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menina, bolsa amanhã já deve amanhecer com circuit breaker, quebradeira já rolando nas bolsas internacionais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@oatila é possível eles começarem a cancelar a partir de agora eventos de meio de ano por conta do vírus? me refiro a bolsas escolares que possibilitam ida e saída dos us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nesta quinta-feira, as bolsas da ásia abrem com forte queda, com a declaração de trump que empedem a entrada de europeus no eua, para controlar o vírus no país.     aproveitem, o bear market continua nesta quinta!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@raullsantiago os dados até aqui não indicam nenhum favorecimento a ninguém. todas as bolsas derreteram e o patamar de desaceleração é destrutivo a governos e empresas. ainda não parece ter ninguém que lucrariam com algo dessa magnitude. e o vírus n foi criado, sempre existiu na vida selvagem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu fui no centro da cidade hoje e tinha meio mundo usando máscara e com álcool em gel pendurado nas bolsas, já devo me preocupar?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas da ásia e da austrália abriram os seus pregões com fortes baixas nesta quinta-feira. este fato vai se refletir por aqui. bao há dúvida.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @winstonling: esta é para você entender a fofoca alarmista em torno do coronavírus, e o sobe-desce recente nas bolsas de valores mundiai…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@albuquerque_af concordo. parece que agora virou pandemia pedir pra fecharem as bolsas. que merda é essa? só pode deixar aberto quando tem robô comprando passivamente com dinheiro impresso pelos bcs? essa foi o fim da picada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@jecihell não sei não. as bolsas nem devem abrir. ainda mais com essa notícia do trump “fechando” os voos da europa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@g1 legal que esse bononoro rebate a organizaçao mundial de saude. nivel global.  fora as bolsas quebrando! esse cara oficialmentw tem um oarafuso a menos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas asiaticas https://t.co/hxxjdiamzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @ph_caixeiro: todo esse caos porque algum arrombado foi comer um pangolim, animal mais traficado do mundo que pode ter servido de interm…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @causaoperariatv: oms decide que "fantasia" de bolsonaro é pandemia. bolsas despencam de novo. resumo do dia 444 - 11/3/20 https://t.co/…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as bolsas de valores asiáticas abriram com baixas próximas aos 5%. o mercado deve repercutir nesta quinta as ações americanas para combater o coronavírus. a suspensão de circulação entre eua e europa pode impactar cadeia de suprimentos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @marcelocerize: bora lá, vocês são traders, porque querem fecharam as bolsas por dias?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotação do café n.y. finalizou a quarta-feira em baixa: mercado interno bolsas n.y. e b.m.f… https://t.co/h7aervecdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ajudemserena eu to impressionada como famosos podem comprar bolsas e carteiras de 15/20 mil e não podem doar 1 centavo pra ela. fico indignada!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@lgodan pânico mundial.
+    <t>rt @ddsamorim23: @debora_d_diniz minha leitura é diferente: a crista negacionista arrogante dos fascistas inevitavelmente se dobra frente à…</t>
+  </si>
+  <si>
+    <t>@forastieri neste momento, bolsas asiáticas caindo 4%, em média, e nem tem o reflexo de fechar o espaço aéreo entre eua e europa continental</t>
+  </si>
+  <si>
+    <t>@paulosnarciso pelo oq eu entendi vc tá em 4 de 4 bolsas e significa que tem 3 pessoas na sua frente. e se levar tudo certinho a quarta vaga é sua.</t>
+  </si>
+  <si>
+    <t>a unb não tem água nos bebedouros, não tem papel higiênico, cortou bolsas, tem mosquito da dengue, etc, mas não ter 1 semana de aula por causa do coronavirus é o que vai atrapalhar o rendimento acadêmico</t>
+  </si>
+  <si>
+    <t>@giovann67526838 @anacamiran sim amiga kkkkkkkk umas 15 bolsas p 4 pessoas</t>
+  </si>
+  <si>
+    <t>@whindersson por isso q as bolsas no mundo todo despencaram.</t>
+  </si>
+  <si>
+    <t>a bolsas de valores irão cair é isso pode gerar a maior crise que o mundo vai ver, medo eu tenho</t>
+  </si>
+  <si>
+    <t>@marycognata @marconha77 pibid? programa institucional de bolsas de iniciação a docência? mds, eu fui bolsista e sou grandiosamente grato por esse programa...</t>
+  </si>
+  <si>
+    <t>amanha as bolsas estarao no modo marea turbo</t>
+  </si>
+  <si>
+    <t>o problema não é a letalidade do vírus, mas o pânico em cadei que ele provoca. por acaso a gripe comum derruba as bolsas de valores do mundo? 🤷🏼‍♀️ https://t.co/bsuhdhvr0f</t>
+  </si>
+  <si>
+    <t>menina, bolsa amanhã já deve amanhecer com circuit breaker, quebradeira já rolando nas bolsas internacionais</t>
+  </si>
+  <si>
+    <t>@oatila é possível eles começarem a cancelar a partir de agora eventos de meio de ano por conta do vírus? me refiro a bolsas escolares que possibilitam ida e saída dos us</t>
+  </si>
+  <si>
+    <t>nesta quinta-feira, as bolsas da ásia abrem com forte queda, com a declaração de trump que empedem a entrada de europeus no eua, para controlar o vírus no país.     aproveitem, o bear market continua nesta quinta!</t>
+  </si>
+  <si>
+    <t>@raullsantiago os dados até aqui não indicam nenhum favorecimento a ninguém. todas as bolsas derreteram e o patamar de desaceleração é destrutivo a governos e empresas. ainda não parece ter ninguém que lucrariam com algo dessa magnitude. e o vírus n foi criado, sempre existiu na vida selvagem.</t>
+  </si>
+  <si>
+    <t>eu fui no centro da cidade hoje e tinha meio mundo usando máscara e com álcool em gel pendurado nas bolsas, já devo me preocupar?</t>
+  </si>
+  <si>
+    <t>bolsas da ásia e da austrália abriram os seus pregões com fortes baixas nesta quinta-feira. este fato vai se refletir por aqui. bao há dúvida.</t>
+  </si>
+  <si>
+    <t>rt @winstonling: esta é para você entender a fofoca alarmista em torno do coronavírus, e o sobe-desce recente nas bolsas de valores mundiai…</t>
+  </si>
+  <si>
+    <t>@albuquerque_af concordo. parece que agora virou pandemia pedir pra fecharem as bolsas. que merda é essa? só pode deixar aberto quando tem robô comprando passivamente com dinheiro impresso pelos bcs? essa foi o fim da picada</t>
+  </si>
+  <si>
+    <t>@jecihell não sei não. as bolsas nem devem abrir. ainda mais com essa notícia do trump “fechando” os voos da europa.</t>
+  </si>
+  <si>
+    <t>@g1 legal que esse bononoro rebate a organizaçao mundial de saude. nivel global.  fora as bolsas quebrando! esse cara oficialmentw tem um oarafuso a menos.</t>
+  </si>
+  <si>
+    <t>bolsas asiaticas https://t.co/hxxjdiamzi</t>
+  </si>
+  <si>
+    <t>rt @ph_caixeiro: todo esse caos porque algum arrombado foi comer um pangolim, animal mais traficado do mundo que pode ter servido de interm…</t>
+  </si>
+  <si>
+    <t>rt @causaoperariatv: oms decide que "fantasia" de bolsonaro é pandemia. bolsas despencam de novo. resumo do dia 444 - 11/3/20 https://t.co/…</t>
+  </si>
+  <si>
+    <t>as bolsas de valores asiáticas abriram com baixas próximas aos 5%. o mercado deve repercutir nesta quinta as ações americanas para combater o coronavírus. a suspensão de circulação entre eua e europa pode impactar cadeia de suprimentos.</t>
+  </si>
+  <si>
+    <t>rt @marcelocerize: bora lá, vocês são traders, porque querem fecharam as bolsas por dias?</t>
+  </si>
+  <si>
+    <t>cotação do café n.y. finalizou a quarta-feira em baixa: mercado interno bolsas n.y. e b.m.f… https://t.co/h7aervecdb</t>
+  </si>
+  <si>
+    <t>@ajudemserena eu to impressionada como famosos podem comprar bolsas e carteiras de 15/20 mil e não podem doar 1 centavo pra ela. fico indignada!!</t>
+  </si>
+  <si>
+    <t>@lgodan pânico mundial.
 só o traste que "preside" o br acha que a mídia é que está aumentando as coisas.
 vamos ver como reagem as bolsas mundiais.
 bolsabr poderá até parar se o movimento cair acima dos 20%.
 o dolar, só não chega em 5,00 se queimarem mais das reservas deixadas pe pt.</t>
   </si>
   <si>
-    <t xml:space="preserve">@maitegentileza amiga quanto é só pra tu me mandar essa ultima mode de paris das bolsas? me ajuda com esse patrocínio teu! hahahahaha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @jouberth19: queda das bolsas:
+    <t>@maitegentileza amiga quanto é só pra tu me mandar essa ultima mode de paris das bolsas? me ajuda com esse patrocínio teu! hahahahaha</t>
+  </si>
+  <si>
+    <t>rt @jouberth19: queda das bolsas:
 🇶🇦 -9,3%
 🇰🇼 -10,3%
 🇬🇷 -12,4%
@@ -1701,126 +1706,126 @@
 🇩🇪 -6,5%…</t>
   </si>
   <si>
-    <t xml:space="preserve">bolsas asiáticas têm forte queda após discurso de trump; índices futuros despencam
+    <t>bolsas asiáticas têm forte queda após discurso de trump; índices futuros despencam
 https://t.co/udiosuelag</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @henriquefontana: é preciso paralisar a privatização de setores estratégicos. como vamos vender o patrimônio dos brasileiros nesse cassi…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as companhias são as mais prejudicas nas bolsas internacionais. o derretimento das ações preocupa porque a situação financeira de muitas aéreas já era preocupante. os governos não têm se compadecido das companhias e a hipótese de uma salvação governamental está distante.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@lgodan quanto mais as notícias mexerem com os índices dos mercados e bolsas mundiais melhor para os interessados!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @bob_fernandes: o petróleo em baixa, o coronavírus em alta, bolsas do mundo e bovespa despencando ou na gangorra, o dólar, o euro e a li…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ranicarvalho @danilotreta lembrando que a loja do centro (que vende calçados, bolsas e acessórios) se chama pintos calçados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vendo vídeo de bolsas e sapatos de luxos sonhando com o dia que terei vários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@veramagalhaes próximo domingo 15 de março o brasil estará nas ruas. foda-se o carona vírus. máscara e álcool gel rapaziada. levem nas bolsas e vamos botar pra fazer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eu imaginei muito a lena segurando a sam numa daquelas bolsas que as madames levam seus cachorrinhos https://t.co/zo4clrprpx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vamo fingir que os pregões ainda são aquele monte de doido junto gritando no telefone e fechar as bolsas por uns 15 dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duas bolsas disponíveis 
+    <t>rt @henriquefontana: é preciso paralisar a privatização de setores estratégicos. como vamos vender o patrimônio dos brasileiros nesse cassi…</t>
+  </si>
+  <si>
+    <t>as companhias são as mais prejudicas nas bolsas internacionais. o derretimento das ações preocupa porque a situação financeira de muitas aéreas já era preocupante. os governos não têm se compadecido das companhias e a hipótese de uma salvação governamental está distante.</t>
+  </si>
+  <si>
+    <t>@lgodan quanto mais as notícias mexerem com os índices dos mercados e bolsas mundiais melhor para os interessados!!!</t>
+  </si>
+  <si>
+    <t>rt @bob_fernandes: o petróleo em baixa, o coronavírus em alta, bolsas do mundo e bovespa despencando ou na gangorra, o dólar, o euro e a li…</t>
+  </si>
+  <si>
+    <t>@ranicarvalho @danilotreta lembrando que a loja do centro (que vende calçados, bolsas e acessórios) se chama pintos calçados</t>
+  </si>
+  <si>
+    <t>vendo vídeo de bolsas e sapatos de luxos sonhando com o dia que terei vários</t>
+  </si>
+  <si>
+    <t>@veramagalhaes próximo domingo 15 de março o brasil estará nas ruas. foda-se o carona vírus. máscara e álcool gel rapaziada. levem nas bolsas e vamos botar pra fazer.</t>
+  </si>
+  <si>
+    <t>eu imaginei muito a lena segurando a sam numa daquelas bolsas que as madames levam seus cachorrinhos https://t.co/zo4clrprpx</t>
+  </si>
+  <si>
+    <t>vamo fingir que os pregões ainda são aquele monte de doido junto gritando no telefone e fechar as bolsas por uns 15 dias</t>
+  </si>
+  <si>
+    <t>duas bolsas disponíveis 
 4° na lista 
 quais as chances affff</t>
   </si>
   <si>
-    <t xml:space="preserve">recuos das bolsas de valores no último mês. olhando pelo covid-19: dos países que caíram pelo menos 20% o brasil é o único com menos de 100 casos confirmados (52). amanhã o circuit breaker pede música no fantástico? https://t.co/ovhpbp8vfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eua barram todas viagens vindas da europa. as bolsas amanhã enlouquecem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @carloscezarcjr: ontem as bolsas caíram no mundo inteiro.
+    <t>recuos das bolsas de valores no último mês. olhando pelo covid-19: dos países que caíram pelo menos 20% o brasil é o único com menos de 100 casos confirmados (52). amanhã o circuit breaker pede música no fantástico? https://t.co/ovhpbp8vfg</t>
+  </si>
+  <si>
+    <t>eua barram todas viagens vindas da europa. as bolsas amanhã enlouquecem.</t>
+  </si>
+  <si>
+    <t>rt @carloscezarcjr: ontem as bolsas caíram no mundo inteiro.
 aqui no brasil a oposição(oportunista como sempre) não perdeu tempo para joga…</t>
   </si>
   <si>
-    <t xml:space="preserve">oms declara pandemia do coronavírus
+    <t>oms declara pandemia do coronavírus
 bolsas de valores caem pelo mundo depois de anúncio
 acompanhe na reportagem de @jumaciel #sbtbrasil</t>
   </si>
   <si>
-    <t xml:space="preserve">o tom hanks tá com corona.
+    <t>o tom hanks tá com corona.
 a nba cancelou a temporada.
 os eua fecharam o espaço aéreo pra europa. 
 as bolsas estão despencando. 
 eu tô nervosa.</t>
   </si>
   <si>
-    <t xml:space="preserve">por fim, vamos a palavra recession, que é a recessão econômica. e assim vamos a conclusão.
+    <t>por fim, vamos a palavra recession, que é a recessão econômica. e assim vamos a conclusão.
 no dia 11 de março de 2020, foi anunciada pela oms a pandemia do coronavírus. isso fez bolsas caírem, assim como movimentos governamentais do mundo todo.</t>
   </si>
   <si>
-    <t xml:space="preserve">os estados unidos guisados por trump fecharam as fronteiras para voos de países que são fonte da pandemia de coronavírus e vcs sabem o que isso significa? estamos prestes a ter um colapso na economia mundial. amanhã vocês vão ver como vão se comportar as bolsas de valores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@camaradeputados parabéns inúteis! o país começando a ser afetado com a queda das bolsas, a economia tentando se recuperar, vcs fazem essa cagada! é mta imbecilidade em um lugar!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @fabiojbacha: vou falar: bolsas deveriam fechar uns dias até as informações estarem certas.. movimento de destruição de riqueza aue mtos…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @gdoweber: amanhã as bolsas não caem, desabam…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@alesilva_38 proponha hoje! privatizar todas as faculdades federais. vai sobrar dinheiro para mais essa "benfeitoria" vinda do pagador de impostos.
+    <t>os estados unidos guisados por trump fecharam as fronteiras para voos de países que são fonte da pandemia de coronavírus e vcs sabem o que isso significa? estamos prestes a ter um colapso na economia mundial. amanhã vocês vão ver como vão se comportar as bolsas de valores</t>
+  </si>
+  <si>
+    <t>@camaradeputados parabéns inúteis! o país começando a ser afetado com a queda das bolsas, a economia tentando se recuperar, vcs fazem essa cagada! é mta imbecilidade em um lugar!</t>
+  </si>
+  <si>
+    <t>rt @fabiojbacha: vou falar: bolsas deveriam fechar uns dias até as informações estarem certas.. movimento de destruição de riqueza aue mtos…</t>
+  </si>
+  <si>
+    <t>rt @gdoweber: amanhã as bolsas não caem, desabam…</t>
+  </si>
+  <si>
+    <t>@alesilva_38 proponha hoje! privatizar todas as faculdades federais. vai sobrar dinheiro para mais essa "benfeitoria" vinda do pagador de impostos.
 corja!! viu o resultado imediato nas bolsas. esse é o estadista que quer ser presidente?? canalhas!!</t>
   </si>
   <si>
-    <t xml:space="preserve">eu: hoje eu durmo cedo, vou deitar e apagar!
+    <t>eu: hoje eu durmo cedo, vou deitar e apagar!
 meu cérebro às 01h: vamos entrar no site da louis vuitton pra ver os sapatos? nós nunca vimos os sapatos, só as bolsas. vaaaaaaamos, pega o celular 🤗</t>
   </si>
   <si>
-    <t xml:space="preserve">@multishow se isso aconteceu na dispensa qndo foi colocar as bolsas me explica como ela tava com a correntinha na mão na hora dele sair e entregou p ele... estranho né pq se ela ñ quis pegar dentro da dispensa qndo ele deu era p estar com ele dentro do bolso qndo saiu 🤔😏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">china parou. itália parou. eua não pode mais receber voos da europa. as ligas americanas cancelaram a temporada. grandes eventos esportivos também são adiados ou sem público. bolsas mundiais despencaram. escolas estão fechando em todo o mundo. corona vírus devastador.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@reginaldfjohns3 @drhache_70 bolsas de coto no? https://t.co/oaoghlwyqn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @prongshits: @goldentrxsh essa é a giselly, o mal em figura de gente
+    <t>@multishow se isso aconteceu na dispensa qndo foi colocar as bolsas me explica como ela tava com a correntinha na mão na hora dele sair e entregou p ele... estranho né pq se ela ñ quis pegar dentro da dispensa qndo ele deu era p estar com ele dentro do bolso qndo saiu 🤔😏</t>
+  </si>
+  <si>
+    <t>china parou. itália parou. eua não pode mais receber voos da europa. as ligas americanas cancelaram a temporada. grandes eventos esportivos também são adiados ou sem público. bolsas mundiais despencaram. escolas estão fechando em todo o mundo. corona vírus devastador.</t>
+  </si>
+  <si>
+    <t>@reginaldfjohns3 @drhache_70 bolsas de coto no? https://t.co/oaoghlwyqn</t>
+  </si>
+  <si>
+    <t>rt @prongshits: @goldentrxsh essa é a giselly, o mal em figura de gente
 ela é a abelha rainha, estrela, as outras duas (jhuly e iasmin) sã…</t>
   </si>
   <si>
-    <t xml:space="preserve">@ailtonbenedito no 🎯
+    <t>@ailtonbenedito no 🎯
 conseguem comprar alimentos com valores reduzidos, comprar ações no colapso das bolsas com seus dólares fora dos eua e quem perde são os países capitalistas e democrático. criam uma guerra química e biológica quando estão passando por problemas. é o comunismo na prática.</t>
   </si>
   <si>
-    <t xml:space="preserve">@elianabragam @manuocampos1 no mesmo ritmo. oportunizando-se da queda nas bolsas.
+    <t>@elianabragam @manuocampos1 no mesmo ritmo. oportunizando-se da queda nas bolsas.
 além de sobrar alimentos e insumos p aumentar as exportações. bolsos cheios de grana pra alguns.</t>
   </si>
   <si>
-    <t xml:space="preserve">@eikebatista valor investe diz q a forte alta das bolsas da véspera acabou se mostrando apenas um soluço. no brasil, a queda do ibovespa foi tamanha nesta quarta-feira (11) que o botão de pânico da b3 precisou ser acionado pela segunda vez em três dias.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">por conta do corona virus, tv do candidato vermelho bloomberg virou obrigatória pra mim.
+    <t>@eikebatista valor investe diz q a forte alta das bolsas da véspera acabou se mostrando apenas um soluço. no brasil, a queda do ibovespa foi tamanha nesta quarta-feira (11) que o botão de pânico da b3 precisou ser acionado pela segunda vez em três dias.</t>
+  </si>
+  <si>
+    <t>por conta do corona virus, tv do candidato vermelho bloomberg virou obrigatória pra mim.
 só números vermelhos e ruins, como o dono.
 bolsas asiáticas  3.5% em queda...</t>
   </si>
   <si>
-    <t xml:space="preserve">@arvdatt @eduardo_cury @liacrespo hoje já derrubaram as bolsas em 12%.  não dá  mais pra passar a mão! temos q ir pra cima!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @parox40: bolsas:
+    <t>@arvdatt @eduardo_cury @liacrespo hoje já derrubaram as bolsas em 12%.  não dá  mais pra passar a mão! temos q ir pra cima!</t>
+  </si>
+  <si>
+    <t>rt @parox40: bolsas:
 índice nikkey ( japão ) -5%. 
 s&amp;amp;p/asx 200 ( áustrália ) -7%</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @hoc111: queda das bolsas pelo mundo:
+    <t>rt @hoc111: queda das bolsas pelo mundo:
 brasil: -10%
 eua: -5%
 alemanha: -6,5%
@@ -1830,10 +1835,10 @@
 grécia: -12,…</t>
   </si>
   <si>
-    <t xml:space="preserve">maluco, as bolsas vão derreter hoje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@adrianocezak @radiosenado nosso presidente tem que
+    <t>maluco, as bolsas vão derreter hoje</t>
+  </si>
+  <si>
+    <t>@adrianocezak @radiosenado nosso presidente tem que
 lutar c um congresso vendido 
 stf corrompido 
 esquerda hipócrita q vomita democracia mas, n aceita a derrota 
@@ -1842,58 +1847,55 @@
 estamos do lado dele⏬</t>
   </si>
   <si>
-    <t xml:space="preserve">bolso na parte da frente resolveria meus prooblemas com bolsas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daí tô olhando as bolsas
+    <t>bolso na parte da frente resolveria meus prooblemas com bolsas</t>
+  </si>
+  <si>
+    <t>daí tô olhando as bolsas
 revirei meu quarto todo
 olhei nas roupas pra lavar
 procurei na casa toda
 e nada de achar minha autoestima</t>
   </si>
   <si>
-    <t xml:space="preserve">vou falar: bolsas deveriam fechar uns dias até as informações estarem certas.. movimento de destruição de riqueza aue mtos acham que rica só na tela chega na economia real aos torcedores da alegria de perda dos outros!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@elianamrsz @amazinghercules @calssilva @elianereal3 @samiabomfim mas é claro, se as bolsas da europa e dos eua ainda começaram a dar sinal de resultado, é um tanto quanto ingenuidade esperar que a do br vai ter o mesmo empenho.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas vão despencar amanhã.. jesus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @realthiagoreis: as bolsas de valores pelo mundo amanhã terão uma queda histórica.
+    <t>vou falar: bolsas deveriam fechar uns dias até as informações estarem certas.. movimento de destruição de riqueza aue mtos acham que rica só na tela chega na economia real aos torcedores da alegria de perda dos outros!</t>
+  </si>
+  <si>
+    <t>@elianamrsz @amazinghercules @calssilva @elianereal3 @samiabomfim mas é claro, se as bolsas da europa e dos eua ainda começaram a dar sinal de resultado, é um tanto quanto ingenuidade esperar que a do br vai ter o mesmo empenho.</t>
+  </si>
+  <si>
+    <t>bolsas vão despencar amanhã.. jesus</t>
+  </si>
+  <si>
+    <t>rt @realthiagoreis: as bolsas de valores pelo mundo amanhã terão uma queda histórica.
 as dessa semana até agora não são nada.
 e, como sem…</t>
   </si>
   <si>
-    <t xml:space="preserve">rt @estadao: editorial: se o presidente estiver certo, a 'grande mídia' terá confundido bolsas de todo o mundo, além de ter criado a ilusão…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsas na ásia caem depois que trump anuncia proibição de viagens da união europeia para os eua: https://t.co/rbudqx78fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coronavirus x dengue x economia 
+    <t>rt @estadao: editorial: se o presidente estiver certo, a 'grande mídia' terá confundido bolsas de todo o mundo, além de ter criado a ilusão…</t>
+  </si>
+  <si>
+    <t>bolsas na ásia caem depois que trump anuncia proibição de viagens da união europeia para os eua: https://t.co/rbudqx78fc</t>
+  </si>
+  <si>
+    <t>coronavirus x dengue x economia 
 galera a questão do novo coronavirus é que o contágio é alto, mas a letalidade até então é baixa. não há motivos para uma histeria. 
 as bolsas do mundo todo vão continuar derretendo, então cuidado com os fake news que vai ter a respeito disso. -&amp;gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">entrei aqui pra contar que tô em 5° lugar de 2 bolsas na lista de espera do prouni e tô muito esperançosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt @agenciapublica: 📣📣atenção, estudante! você até o dia 15/03 para inscrever sua pauta sobre mobilidade urbana no concurso de microbolsas…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mesmo sem saber até, se terei um emprego, mesmo após estudar mais de 4 anos, alguns leigos não tem noção do que está por trás desse vírus, que foi declarado como pandemia, nossa país sofreu corte nas bolsas de iniciação científica, e agora quem garante que estamos estruturados ?</t>
+    <t>entrei aqui pra contar que tô em 5° lugar de 2 bolsas na lista de espera do prouni e tô muito esperançosa</t>
+  </si>
+  <si>
+    <t>rt @agenciapublica: 📣📣atenção, estudante! você até o dia 15/03 para inscrever sua pauta sobre mobilidade urbana no concurso de microbolsas…</t>
+  </si>
+  <si>
+    <t>mesmo sem saber até, se terei um emprego, mesmo após estudar mais de 4 anos, alguns leigos não tem noção do que está por trás desse vírus, que foi declarado como pandemia, nossa país sofreu corte nas bolsas de iniciação científica, e agora quem garante que estamos estruturados ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1902,26 +1904,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1939,2609 +1925,2884 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ316"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A304" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="8.6"/>
+    <col min="1" max="1" width="8.5703125" style="1"/>
+    <col min="2" max="2" width="48.140625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="22" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>3</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>0</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>3</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>3</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>3</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>0</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>3</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>0</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>0</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>3</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>3</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>0</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>0</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>0</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>3</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>3</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>3</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>0</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>3</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>3</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>3</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>0</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>0</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>0</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>0</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>0</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>0</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>0</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>3</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>3</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>3</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>3</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>0</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>3</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>3</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>3</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>3</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>3</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>3</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>3</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>0</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>0</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>3</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>0</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>3</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>3</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>0</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>0</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>0</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>0</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>0</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>0</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>3</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>0</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>3</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>0</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>0</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>3</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>0</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>0</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>0</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>3</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>3</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>3</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>3</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>3</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>0</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>0</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>3</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>0</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>0</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>3</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>0</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>3</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>0</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>3</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>0</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>3</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>0</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>3</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>0</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>0</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>3</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>0</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>0</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>3</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>0</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>0</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>3</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>3</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>3</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>0</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>0</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>3</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>0</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>0</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>0</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>3</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>0</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>3</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>3</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>3</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>3</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>3</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>3</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>0</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>0</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>0</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>0</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>3</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>3</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>0</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>0</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>0</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>0</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>3</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>0</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>3</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>3</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>3</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>0</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>0</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>0</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>0</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>0</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>0</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>3</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>3</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>0</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>0</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>3</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>0</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>0</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>0</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
         <v>3</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>3</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>0</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
         <v>0</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>0</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>0</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
         <v>0</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
         <v>0</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
         <v>0</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
         <v>0</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
         <v>0</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>0</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
         <v>3</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
         <v>3</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
         <v>3</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
         <v>3</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
         <v>0</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
         <v>3</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
         <v>0</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
         <v>0</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
         <v>3</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
         <v>0</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>0</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
         <v>0</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
         <v>3</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>0</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
         <v>0</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>0</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
         <v>3</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="n">
+    <row r="254" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>3</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="n">
+    <row r="255" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>3</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="n">
+    <row r="256" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
         <v>0</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="n">
+    <row r="257" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
         <v>0</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="n">
+    <row r="258" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>3</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="n">
+    <row r="259" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
         <v>3</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="n">
+    <row r="260" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
         <v>3</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="n">
+    <row r="261" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
         <v>0</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="n">
+    <row r="262" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
         <v>0</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="n">
+    <row r="263" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
         <v>0</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="n">
+    <row r="264" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>3</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="n">
+    <row r="265" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
         <v>0</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="n">
+    <row r="266" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>0</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="n">
+    <row r="267" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>0</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="n">
+    <row r="268" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
         <v>0</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="n">
+    <row r="269" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
         <v>0</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="n">
+    <row r="270" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>0</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="n">
+    <row r="271" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
         <v>0</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="n">
+    <row r="272" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
         <v>0</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="n">
+    <row r="273" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
         <v>0</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="n">
+    <row r="274" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
         <v>0</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="n">
+    <row r="275" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
         <v>0</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="n">
+    <row r="276" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
         <v>0</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="n">
+    <row r="277" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>0</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="n">
+    <row r="278" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
         <v>0</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="n">
+    <row r="279" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
         <v>0</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="n">
+    <row r="280" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
         <v>0</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="n">
+    <row r="281" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
         <v>3</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="n">
+    <row r="282" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
         <v>3</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="n">
+    <row r="283" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
         <v>3</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="n">
+    <row r="284" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
         <v>3</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="n">
+    <row r="285" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
         <v>3</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="n">
+    <row r="286" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
         <v>3</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="n">
+    <row r="287" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
         <v>3</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="n">
+    <row r="288" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
         <v>3</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="n">
+    <row r="289" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
         <v>3</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="n">
+    <row r="290" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
         <v>3</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="n">
+    <row r="291" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
         <v>3</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="n">
+    <row r="292" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
         <v>3</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="n">
+    <row r="293" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
         <v>3</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="n">
+    <row r="294" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
         <v>3</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="n">
+    <row r="295" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
         <v>3</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="n">
+    <row r="296" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
         <v>3</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="n">
+    <row r="297" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
         <v>3</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="n">
+    <row r="298" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
         <v>3</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="n">
+    <row r="299" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
         <v>3</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1" t="n">
+    <row r="300" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
         <v>3</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="n">
+    <row r="301" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
         <v>3</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1" t="n">
+    <row r="302" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
         <v>3</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="n">
+    <row r="303" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
         <v>3</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="1" t="n">
+    <row r="304" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
         <v>3</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="1" t="n">
+    <row r="305" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
         <v>3</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1" t="n">
+    <row r="306" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
         <v>3</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1" t="n">
+    <row r="307" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
         <v>0</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="n">
+    <row r="308" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
         <v>0</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="1" t="n">
+    <row r="309" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
         <v>0</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1" t="n">
+    <row r="310" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
         <v>0</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="1" t="n">
+    <row r="311" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
         <v>0</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="1" t="n">
+    <row r="312" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
         <v>0</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="1" t="n">
+    <row r="313" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
         <v>0</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="1" t="n">
+    <row r="314" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
         <v>0</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="1" t="n">
+    <row r="315" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
         <v>0</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="1" t="n">
+    <row r="316" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
         <v>0</v>
       </c>
       <c r="B316" s="3" t="s">
@@ -4549,1798 +4810,1790 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ222"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I222" activeCellId="0" sqref="I222"/>
+    <sheetView topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="8.6"/>
+    <col min="1" max="1" width="8.5703125" style="1"/>
+    <col min="2" max="2" width="50" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>3</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>0</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>0</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>0</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>0</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>0</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>0</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>0</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>0</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>0</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>0</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>0</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>0</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>0</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>0</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>0</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>0</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>0</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>0</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>0</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>0</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>0</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>0</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>0</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>0</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>0</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>0</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>0</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>0</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>0</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>2</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>2</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>0</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>0</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>2</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>2</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>2</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>2</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>0</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>0</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>2</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>0</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>0</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>0</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>0</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>0</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>0</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>0</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>0</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>2</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>0</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>0</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>2</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>2</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>2</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>2</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>0</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>2</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>0</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>0</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>0</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>0</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>2</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>2</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>0</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>2</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>2</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>0</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>0</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>3</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>0</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>0</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>2</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>2</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>2</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>2</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>2</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>2</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>2</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>0</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>2</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>2</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>2</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>0</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>0</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -6348,12 +6601,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/M1ercado.xlsx
+++ b/M1ercado.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="536">
   <si>
     <t xml:space="preserve">Treinamento</t>
   </si>
@@ -1117,6 +1117,9 @@
   </si>
   <si>
     <t xml:space="preserve">Teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dela</t>
   </si>
   <si>
     <t xml:space="preserve">rt @folha: congresso impõe derrota ao governo e eleva gasto de benefício assistencial em r$ 20 bi por ano https://t.co/n2h9u28ujl</t>
@@ -2015,8 +2018,8 @@
   </sheetPr>
   <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A304" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B212" activeCellId="0" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4566,8 +4569,8 @@
   </sheetPr>
   <dimension ref="A1:B222"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A211" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I222" activeCellId="0" sqref="I222"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4583,11 +4586,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,7 +4598,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,7 +4606,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4643,7 +4646,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4651,7 +4654,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4659,7 +4662,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4667,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,7 +4678,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,7 +4686,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4691,7 +4694,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4699,7 +4702,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,7 +4710,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4723,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4731,7 +4734,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,7 +4742,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4755,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4771,7 +4774,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +4790,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4795,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4803,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,7 +4822,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4827,7 +4830,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4835,7 +4838,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4843,7 +4846,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,7 +4854,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4859,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,7 +4870,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,7 +4878,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,7 +4886,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4891,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4907,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,7 +4918,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4931,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4939,7 +4942,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,7 +4958,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5011,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5043,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5099,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5107,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5123,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5203,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5243,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5267,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5291,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5307,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5323,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5339,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5363,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5379,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5387,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5395,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5451,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5459,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5467,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5507,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5515,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,7 +5558,7 @@
         <v>2</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,7 +5574,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,7 +5590,7 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,7 +5598,7 @@
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,7 +5606,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5611,7 +5614,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,7 +5646,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,7 +5654,7 @@
         <v>2</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5659,12 +5662,12 @@
         <v>2</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,7 +5675,7 @@
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,7 +5683,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +5699,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5704,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,7 +5723,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5736,7 +5739,7 @@
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5784,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5800,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5808,7 +5811,7 @@
         <v>2</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5816,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,7 +5827,7 @@
         <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +5835,7 @@
         <v>2</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,7 +5851,7 @@
         <v>2</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,7 +5867,7 @@
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5880,7 +5883,7 @@
         <v>2</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5888,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5912,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,7 +5923,7 @@
         <v>2</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5928,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,7 +5939,7 @@
         <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5968,7 +5971,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,7 +5979,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,7 +5987,7 @@
         <v>2</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5992,7 +5995,7 @@
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,7 +6003,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6040,7 +6043,7 @@
         <v>2</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6056,7 +6059,7 @@
         <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6064,7 +6067,7 @@
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,7 +6075,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,7 +6083,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6096,7 +6099,7 @@
         <v>2</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,7 +6107,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6112,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6120,7 +6123,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6128,7 +6131,7 @@
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6136,7 +6139,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6152,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6160,7 +6163,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6168,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6176,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6184,7 +6187,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,7 +6195,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,7 +6203,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6208,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6216,7 +6219,7 @@
         <v>2</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,7 +6227,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6232,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6240,7 +6243,7 @@
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6248,7 +6251,7 @@
         <v>2</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6256,7 +6259,7 @@
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6264,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6272,7 +6275,7 @@
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6280,7 +6283,7 @@
         <v>2</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6288,7 +6291,7 @@
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6296,7 +6299,7 @@
         <v>2</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6304,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,7 +6315,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6320,7 +6323,7 @@
         <v>2</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6328,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6336,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6344,7 +6347,7 @@
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
